--- a/excel/finished/wg8#高炉/8高炉班产燃料比.xlsx
+++ b/excel/finished/wg8#高炉/8高炉班产燃料比.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C179C2-5622-48DE-A264-1C9EEBEEF4D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B73E0-D1C9-43E5-B090-D07E266A522B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8BF" sheetId="3" r:id="rId1"/>
-    <sheet name="_tagNameDatas" sheetId="6" r:id="rId2"/>
+    <sheet name="_tagNameDatas" sheetId="6" state="hidden" r:id="rId2"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId3"/>
     <sheet name="_metadata" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -637,6 +637,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,24 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AW5" sqref="AW5"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:BR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1350,87 +1350,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
-      <c r="BR1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1592,9 +1592,9 @@
       </c>
     </row>
     <row r="3" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="6" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1943,7 @@
         <f>IF(ISERROR((AI5*AJ5/100+(AK5+AL5)*0.6%-AM5-AN5-AO5)*0.987/0.942),"",(AI5*AJ5/100+(AK5+AL5)*0.6%-AM5-AN5-AO5)*0.987/0.942)</f>
         <v/>
       </c>
-      <c r="AR5" s="43" t="str">
+      <c r="AR5" s="41" t="str">
         <f>IF(_tagNameDatas!C2="","",_tagNameDatas!C2)</f>
         <v/>
       </c>
@@ -2019,35 +2019,35 @@
         <f>IF(SUM(BH5,BI5)=0,"",SUM(BH5,BI5))</f>
         <v/>
       </c>
-      <c r="BK5" s="43" t="str">
+      <c r="BK5" s="41" t="str">
         <f>IF(SUM(AP5,AP6)=0,"",SUM(AP5,AP6))</f>
         <v/>
       </c>
-      <c r="BL5" s="43" t="str">
+      <c r="BL5" s="41" t="str">
         <f>IF(ISERROR((AK5+AK6)*1000/BK5),"",(AK5+AK6)*1000/BK5)</f>
         <v/>
       </c>
-      <c r="BM5" s="43" t="str">
+      <c r="BM5" s="41" t="str">
         <f>IF(ISERROR((AL5+AL6)*1000/BK5),"",(AL5+AL6)*1000/BK5)</f>
         <v/>
       </c>
-      <c r="BN5" s="43" t="str">
+      <c r="BN5" s="41" t="str">
         <f>IF(SUM(BL5,BM5)=0,"",SUM(BL5,BM5))</f>
         <v/>
       </c>
-      <c r="BO5" s="43" t="str">
+      <c r="BO5" s="41" t="str">
         <f>IF(SUM(AQ5,AQ6)=0,"",SUM(AQ5,AQ6))</f>
         <v/>
       </c>
-      <c r="BP5" s="43" t="str">
+      <c r="BP5" s="41" t="str">
         <f>IF(ISERROR((AK5+AK6)*1000/BO5),"",(AK5+AK6)*1000/BO5)</f>
         <v/>
       </c>
-      <c r="BQ5" s="43" t="str">
+      <c r="BQ5" s="41" t="str">
         <f>IF(ISERROR((AL5+AL6)*1000/BO5),"",(AL5+AL6)*1000/BO5)</f>
         <v/>
       </c>
-      <c r="BR5" s="44" t="str">
+      <c r="BR5" s="37" t="str">
         <f>IF(SUM(BP5,BQ5)=0,"",SUM(BP5,BQ5))</f>
         <v/>
       </c>
@@ -2088,8 +2088,8 @@
       <c r="AB6" s="24"/>
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
       <c r="AG6" s="25"/>
       <c r="AH6" s="24">
         <f t="shared" ref="AH6:AH66" si="0">IF(ISERROR(SUM(F6:P6)),"",SUM(F6:P6))</f>
@@ -2116,7 +2116,7 @@
         <f t="shared" ref="AQ6:AQ66" si="3">IF(ISERROR((AI6*AJ6/100+(AK6+AL6)*0.6%-AM6-AN6-AO6)*0.987/0.942),"",(AI6*AJ6/100+(AK6+AL6)*0.6%-AM6-AN6-AO6)*0.987/0.942)</f>
         <v/>
       </c>
-      <c r="AR6" s="43"/>
+      <c r="AR6" s="41"/>
       <c r="AS6" s="24" t="str">
         <f t="shared" ref="AS6:AS66" si="4">IF(ISERROR(AQ6-AP6),"",AQ6-AP6)</f>
         <v/>
@@ -2189,14 +2189,14 @@
         <f t="shared" ref="BJ6:BJ67" si="18">IF(SUM(BH6,BI6)=0,"",SUM(BH6,BI6))</f>
         <v/>
       </c>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="43"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="43"/>
-      <c r="BP6" s="43"/>
-      <c r="BQ6" s="43"/>
-      <c r="BR6" s="44"/>
+      <c r="BK6" s="41"/>
+      <c r="BL6" s="41"/>
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="41"/>
+      <c r="BR6" s="37"/>
     </row>
     <row r="7" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42">
@@ -2236,8 +2236,8 @@
       <c r="AB7" s="24"/>
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="24">
         <f t="shared" si="0"/>
@@ -2264,7 +2264,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR7" s="43" t="str">
+      <c r="AR7" s="41" t="str">
         <f>IF(_tagNameDatas!C4="","",_tagNameDatas!C4)</f>
         <v/>
       </c>
@@ -2340,35 +2340,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK7" s="43" t="str">
+      <c r="BK7" s="41" t="str">
         <f>IF(SUM(AP7,AP8)=0,"",SUM(AP7,AP8))</f>
         <v/>
       </c>
-      <c r="BL7" s="43" t="str">
+      <c r="BL7" s="41" t="str">
         <f>IF(ISERROR((AK7+AK8)*1000/BK7),"",(AK7+AK8)*1000/BK7)</f>
         <v/>
       </c>
-      <c r="BM7" s="43" t="str">
+      <c r="BM7" s="41" t="str">
         <f>IF(ISERROR((AL7+AL8)*1000/BK7),"",(AL7+AL8)*1000/BK7)</f>
         <v/>
       </c>
-      <c r="BN7" s="43" t="str">
+      <c r="BN7" s="41" t="str">
         <f>IF(SUM(BL7,BM7)=0,"",SUM(BL7,BM7))</f>
         <v/>
       </c>
-      <c r="BO7" s="43" t="str">
+      <c r="BO7" s="41" t="str">
         <f>IF(SUM(AQ7,AQ8)=0,"",SUM(AQ7,AQ8))</f>
         <v/>
       </c>
-      <c r="BP7" s="43" t="str">
+      <c r="BP7" s="41" t="str">
         <f>IF(ISERROR((AK7+AK8)*1000/BO7),"",(AK7+AK8)*1000/BO7)</f>
         <v/>
       </c>
-      <c r="BQ7" s="43" t="str">
+      <c r="BQ7" s="41" t="str">
         <f>IF(ISERROR((AL7+AL8)*1000/BO7),"",(AL7+AL8)*1000/BO7)</f>
         <v/>
       </c>
-      <c r="BR7" s="44" t="str">
+      <c r="BR7" s="37" t="str">
         <f>IF(SUM(BP7,BQ7)=0,"",SUM(BP7,BQ7))</f>
         <v/>
       </c>
@@ -2409,8 +2409,8 @@
       <c r="AB8" s="24"/>
       <c r="AC8" s="24"/>
       <c r="AD8" s="24"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="24">
         <f t="shared" si="0"/>
@@ -2437,7 +2437,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR8" s="43"/>
+      <c r="AR8" s="41"/>
       <c r="AS8" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2510,14 +2510,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK8" s="43"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="43"/>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="44"/>
+      <c r="BK8" s="41"/>
+      <c r="BL8" s="41"/>
+      <c r="BM8" s="41"/>
+      <c r="BN8" s="41"/>
+      <c r="BO8" s="41"/>
+      <c r="BP8" s="41"/>
+      <c r="BQ8" s="41"/>
+      <c r="BR8" s="37"/>
     </row>
     <row r="9" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42">
@@ -2557,8 +2557,8 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
       <c r="AG9" s="25"/>
       <c r="AH9" s="24">
         <f t="shared" si="0"/>
@@ -2585,7 +2585,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR9" s="43" t="str">
+      <c r="AR9" s="41" t="str">
         <f>IF(_tagNameDatas!C6="","",_tagNameDatas!C6)</f>
         <v/>
       </c>
@@ -2661,35 +2661,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK9" s="43" t="str">
+      <c r="BK9" s="41" t="str">
         <f>IF(SUM(AP9,AP10)=0,"",SUM(AP9,AP10))</f>
         <v/>
       </c>
-      <c r="BL9" s="43" t="str">
+      <c r="BL9" s="41" t="str">
         <f>IF(ISERROR((AK9+AK10)*1000/BK9),"",(AK9+AK10)*1000/BK9)</f>
         <v/>
       </c>
-      <c r="BM9" s="43" t="str">
+      <c r="BM9" s="41" t="str">
         <f>IF(ISERROR((AL9+AL10)*1000/BK9),"",(AL9+AL10)*1000/BK9)</f>
         <v/>
       </c>
-      <c r="BN9" s="43" t="str">
+      <c r="BN9" s="41" t="str">
         <f>IF(SUM(BL9,BM9)=0,"",SUM(BL9,BM9))</f>
         <v/>
       </c>
-      <c r="BO9" s="43" t="str">
+      <c r="BO9" s="41" t="str">
         <f>IF(SUM(AQ9,AQ10)=0,"",SUM(AQ9,AQ10))</f>
         <v/>
       </c>
-      <c r="BP9" s="43" t="str">
+      <c r="BP9" s="41" t="str">
         <f>IF(ISERROR((AK9+AK10)*1000/BO9),"",(AK9+AK10)*1000/BO9)</f>
         <v/>
       </c>
-      <c r="BQ9" s="43" t="str">
+      <c r="BQ9" s="41" t="str">
         <f>IF(ISERROR((AL9+AL10)*1000/BO9),"",(AL9+AL10)*1000/BO9)</f>
         <v/>
       </c>
-      <c r="BR9" s="44" t="str">
+      <c r="BR9" s="37" t="str">
         <f>IF(SUM(BP9,BQ9)=0,"",SUM(BP9,BQ9))</f>
         <v/>
       </c>
@@ -2730,8 +2730,8 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
       <c r="AD10" s="24"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
       <c r="AG10" s="25"/>
       <c r="AH10" s="24">
         <f t="shared" si="0"/>
@@ -2758,7 +2758,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR10" s="43"/>
+      <c r="AR10" s="41"/>
       <c r="AS10" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2831,14 +2831,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK10" s="43"/>
-      <c r="BL10" s="43"/>
-      <c r="BM10" s="43"/>
-      <c r="BN10" s="43"/>
-      <c r="BO10" s="43"/>
-      <c r="BP10" s="43"/>
-      <c r="BQ10" s="43"/>
-      <c r="BR10" s="44"/>
+      <c r="BK10" s="41"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="41"/>
+      <c r="BN10" s="41"/>
+      <c r="BO10" s="41"/>
+      <c r="BP10" s="41"/>
+      <c r="BQ10" s="41"/>
+      <c r="BR10" s="37"/>
     </row>
     <row r="11" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42">
@@ -2878,8 +2878,8 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="24"/>
       <c r="AD11" s="24"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="24">
         <f t="shared" si="0"/>
@@ -2906,7 +2906,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR11" s="43" t="str">
+      <c r="AR11" s="41" t="str">
         <f>IF(_tagNameDatas!C8="","",_tagNameDatas!C8)</f>
         <v/>
       </c>
@@ -2982,35 +2982,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK11" s="43" t="str">
+      <c r="BK11" s="41" t="str">
         <f>IF(SUM(AP11,AP12)=0,"",SUM(AP11,AP12))</f>
         <v/>
       </c>
-      <c r="BL11" s="43" t="str">
+      <c r="BL11" s="41" t="str">
         <f>IF(ISERROR((AK11+AK12)*1000/BK11),"",(AK11+AK12)*1000/BK11)</f>
         <v/>
       </c>
-      <c r="BM11" s="43" t="str">
+      <c r="BM11" s="41" t="str">
         <f>IF(ISERROR((AL11+AL12)*1000/BK11),"",(AL11+AL12)*1000/BK11)</f>
         <v/>
       </c>
-      <c r="BN11" s="43" t="str">
+      <c r="BN11" s="41" t="str">
         <f>IF(SUM(BL11,BM11)=0,"",SUM(BL11,BM11))</f>
         <v/>
       </c>
-      <c r="BO11" s="43" t="str">
+      <c r="BO11" s="41" t="str">
         <f>IF(SUM(AQ11,AQ12)=0,"",SUM(AQ11,AQ12))</f>
         <v/>
       </c>
-      <c r="BP11" s="43" t="str">
+      <c r="BP11" s="41" t="str">
         <f>IF(ISERROR((AK11+AK12)*1000/BO11),"",(AK11+AK12)*1000/BO11)</f>
         <v/>
       </c>
-      <c r="BQ11" s="43" t="str">
+      <c r="BQ11" s="41" t="str">
         <f>IF(ISERROR((AL11+AL12)*1000/BO11),"",(AL11+AL12)*1000/BO11)</f>
         <v/>
       </c>
-      <c r="BR11" s="44" t="str">
+      <c r="BR11" s="37" t="str">
         <f>IF(SUM(BP11,BQ11)=0,"",SUM(BP11,BQ11))</f>
         <v/>
       </c>
@@ -3051,8 +3051,8 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
       <c r="AG12" s="25"/>
       <c r="AH12" s="24">
         <f t="shared" si="0"/>
@@ -3079,7 +3079,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR12" s="43"/>
+      <c r="AR12" s="41"/>
       <c r="AS12" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3152,14 +3152,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK12" s="43"/>
-      <c r="BL12" s="43"/>
-      <c r="BM12" s="43"/>
-      <c r="BN12" s="43"/>
-      <c r="BO12" s="43"/>
-      <c r="BP12" s="43"/>
-      <c r="BQ12" s="43"/>
-      <c r="BR12" s="44"/>
+      <c r="BK12" s="41"/>
+      <c r="BL12" s="41"/>
+      <c r="BM12" s="41"/>
+      <c r="BN12" s="41"/>
+      <c r="BO12" s="41"/>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="41"/>
+      <c r="BR12" s="37"/>
     </row>
     <row r="13" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42">
@@ -3199,8 +3199,8 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="24"/>
       <c r="AD13" s="24"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="24">
         <f t="shared" si="0"/>
@@ -3227,7 +3227,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR13" s="43" t="str">
+      <c r="AR13" s="41" t="str">
         <f>IF(_tagNameDatas!C10="","",_tagNameDatas!C10)</f>
         <v/>
       </c>
@@ -3303,35 +3303,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK13" s="43" t="str">
+      <c r="BK13" s="41" t="str">
         <f>IF(SUM(AP13,AP14)=0,"",SUM(AP13,AP14))</f>
         <v/>
       </c>
-      <c r="BL13" s="43" t="str">
+      <c r="BL13" s="41" t="str">
         <f>IF(ISERROR((AK13+AK14)*1000/BK13),"",(AK13+AK14)*1000/BK13)</f>
         <v/>
       </c>
-      <c r="BM13" s="43" t="str">
+      <c r="BM13" s="41" t="str">
         <f>IF(ISERROR((AL13+AL14)*1000/BK13),"",(AL13+AL14)*1000/BK13)</f>
         <v/>
       </c>
-      <c r="BN13" s="43" t="str">
+      <c r="BN13" s="41" t="str">
         <f>IF(SUM(BL13,BM13)=0,"",SUM(BL13,BM13))</f>
         <v/>
       </c>
-      <c r="BO13" s="43" t="str">
+      <c r="BO13" s="41" t="str">
         <f>IF(SUM(AQ13,AQ14)=0,"",SUM(AQ13,AQ14))</f>
         <v/>
       </c>
-      <c r="BP13" s="43" t="str">
+      <c r="BP13" s="41" t="str">
         <f>IF(ISERROR((AK13+AK14)*1000/BO13),"",(AK13+AK14)*1000/BO13)</f>
         <v/>
       </c>
-      <c r="BQ13" s="43" t="str">
+      <c r="BQ13" s="41" t="str">
         <f>IF(ISERROR((AL13+AL14)*1000/BO13),"",(AL13+AL14)*1000/BO13)</f>
         <v/>
       </c>
-      <c r="BR13" s="44" t="str">
+      <c r="BR13" s="37" t="str">
         <f>IF(SUM(BP13,BQ13)=0,"",SUM(BP13,BQ13))</f>
         <v/>
       </c>
@@ -3372,8 +3372,8 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="24">
         <f t="shared" si="0"/>
@@ -3400,7 +3400,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR14" s="43"/>
+      <c r="AR14" s="41"/>
       <c r="AS14" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3473,14 +3473,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK14" s="43"/>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="43"/>
-      <c r="BN14" s="43"/>
-      <c r="BO14" s="43"/>
-      <c r="BP14" s="43"/>
-      <c r="BQ14" s="43"/>
-      <c r="BR14" s="44"/>
+      <c r="BK14" s="41"/>
+      <c r="BL14" s="41"/>
+      <c r="BM14" s="41"/>
+      <c r="BN14" s="41"/>
+      <c r="BO14" s="41"/>
+      <c r="BP14" s="41"/>
+      <c r="BQ14" s="41"/>
+      <c r="BR14" s="37"/>
     </row>
     <row r="15" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42">
@@ -3520,8 +3520,8 @@
       <c r="AB15" s="24"/>
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="24">
         <f t="shared" si="0"/>
@@ -3548,7 +3548,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR15" s="43" t="str">
+      <c r="AR15" s="41" t="str">
         <f>IF(_tagNameDatas!C12="","",_tagNameDatas!C12)</f>
         <v/>
       </c>
@@ -3624,35 +3624,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK15" s="43" t="str">
+      <c r="BK15" s="41" t="str">
         <f>IF(SUM(AP15,AP16)=0,"",SUM(AP15,AP16))</f>
         <v/>
       </c>
-      <c r="BL15" s="43" t="str">
+      <c r="BL15" s="41" t="str">
         <f>IF(ISERROR((AK15+AK16)*1000/BK15),"",(AK15+AK16)*1000/BK15)</f>
         <v/>
       </c>
-      <c r="BM15" s="43" t="str">
+      <c r="BM15" s="41" t="str">
         <f>IF(ISERROR((AL15+AL16)*1000/BK15),"",(AL15+AL16)*1000/BK15)</f>
         <v/>
       </c>
-      <c r="BN15" s="43" t="str">
+      <c r="BN15" s="41" t="str">
         <f>IF(SUM(BL15,BM15)=0,"",SUM(BL15,BM15))</f>
         <v/>
       </c>
-      <c r="BO15" s="43" t="str">
+      <c r="BO15" s="41" t="str">
         <f>IF(SUM(AQ15,AQ16)=0,"",SUM(AQ15,AQ16))</f>
         <v/>
       </c>
-      <c r="BP15" s="43" t="str">
+      <c r="BP15" s="41" t="str">
         <f>IF(ISERROR((AK15+AK16)*1000/BO15),"",(AK15+AK16)*1000/BO15)</f>
         <v/>
       </c>
-      <c r="BQ15" s="43" t="str">
+      <c r="BQ15" s="41" t="str">
         <f>IF(ISERROR((AL15+AL16)*1000/BO15),"",(AL15+AL16)*1000/BO15)</f>
         <v/>
       </c>
-      <c r="BR15" s="44" t="str">
+      <c r="BR15" s="37" t="str">
         <f>IF(SUM(BP15,BQ15)=0,"",SUM(BP15,BQ15))</f>
         <v/>
       </c>
@@ -3693,8 +3693,8 @@
       <c r="AB16" s="24"/>
       <c r="AC16" s="24"/>
       <c r="AD16" s="24"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
       <c r="AG16" s="25"/>
       <c r="AH16" s="24">
         <f t="shared" si="0"/>
@@ -3721,7 +3721,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR16" s="43"/>
+      <c r="AR16" s="41"/>
       <c r="AS16" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3794,14 +3794,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK16" s="43"/>
-      <c r="BL16" s="43"/>
-      <c r="BM16" s="43"/>
-      <c r="BN16" s="43"/>
-      <c r="BO16" s="43"/>
-      <c r="BP16" s="43"/>
-      <c r="BQ16" s="43"/>
-      <c r="BR16" s="44"/>
+      <c r="BK16" s="41"/>
+      <c r="BL16" s="41"/>
+      <c r="BM16" s="41"/>
+      <c r="BN16" s="41"/>
+      <c r="BO16" s="41"/>
+      <c r="BP16" s="41"/>
+      <c r="BQ16" s="41"/>
+      <c r="BR16" s="37"/>
     </row>
     <row r="17" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42">
@@ -3841,8 +3841,8 @@
       <c r="AB17" s="24"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="24">
         <f t="shared" si="0"/>
@@ -3869,7 +3869,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR17" s="43" t="str">
+      <c r="AR17" s="41" t="str">
         <f>IF(_tagNameDatas!C14="","",_tagNameDatas!C14)</f>
         <v/>
       </c>
@@ -3945,35 +3945,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK17" s="43" t="str">
+      <c r="BK17" s="41" t="str">
         <f>IF(SUM(AP17,AP18)=0,"",SUM(AP17,AP18))</f>
         <v/>
       </c>
-      <c r="BL17" s="43" t="str">
+      <c r="BL17" s="41" t="str">
         <f>IF(ISERROR((AK17+AK18)*1000/BK17),"",(AK17+AK18)*1000/BK17)</f>
         <v/>
       </c>
-      <c r="BM17" s="43" t="str">
+      <c r="BM17" s="41" t="str">
         <f>IF(ISERROR((AL17+AL18)*1000/BK17),"",(AL17+AL18)*1000/BK17)</f>
         <v/>
       </c>
-      <c r="BN17" s="43" t="str">
+      <c r="BN17" s="41" t="str">
         <f>IF(SUM(BL17,BM17)=0,"",SUM(BL17,BM17))</f>
         <v/>
       </c>
-      <c r="BO17" s="43" t="str">
+      <c r="BO17" s="41" t="str">
         <f>IF(SUM(AQ17,AQ18)=0,"",SUM(AQ17,AQ18))</f>
         <v/>
       </c>
-      <c r="BP17" s="43" t="str">
+      <c r="BP17" s="41" t="str">
         <f>IF(ISERROR((AK17+AK18)*1000/BO17),"",(AK17+AK18)*1000/BO17)</f>
         <v/>
       </c>
-      <c r="BQ17" s="43" t="str">
+      <c r="BQ17" s="41" t="str">
         <f>IF(ISERROR((AL17+AL18)*1000/BO17),"",(AL17+AL18)*1000/BO17)</f>
         <v/>
       </c>
-      <c r="BR17" s="44" t="str">
+      <c r="BR17" s="37" t="str">
         <f>IF(SUM(BP17,BQ17)=0,"",SUM(BP17,BQ17))</f>
         <v/>
       </c>
@@ -4014,8 +4014,8 @@
       <c r="AB18" s="24"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="24">
         <f t="shared" si="0"/>
@@ -4042,7 +4042,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR18" s="43"/>
+      <c r="AR18" s="41"/>
       <c r="AS18" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4115,14 +4115,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK18" s="43"/>
-      <c r="BL18" s="43"/>
-      <c r="BM18" s="43"/>
-      <c r="BN18" s="43"/>
-      <c r="BO18" s="43"/>
-      <c r="BP18" s="43"/>
-      <c r="BQ18" s="43"/>
-      <c r="BR18" s="44"/>
+      <c r="BK18" s="41"/>
+      <c r="BL18" s="41"/>
+      <c r="BM18" s="41"/>
+      <c r="BN18" s="41"/>
+      <c r="BO18" s="41"/>
+      <c r="BP18" s="41"/>
+      <c r="BQ18" s="41"/>
+      <c r="BR18" s="37"/>
     </row>
     <row r="19" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42">
@@ -4190,7 +4190,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR19" s="43" t="str">
+      <c r="AR19" s="41" t="str">
         <f>IF(_tagNameDatas!C16="","",_tagNameDatas!C16)</f>
         <v/>
       </c>
@@ -4266,35 +4266,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK19" s="43" t="str">
+      <c r="BK19" s="41" t="str">
         <f>IF(SUM(AP19,AP20)=0,"",SUM(AP19,AP20))</f>
         <v/>
       </c>
-      <c r="BL19" s="43" t="str">
+      <c r="BL19" s="41" t="str">
         <f>IF(ISERROR((AK19+AK20)*1000/BK19),"",(AK19+AK20)*1000/BK19)</f>
         <v/>
       </c>
-      <c r="BM19" s="43" t="str">
+      <c r="BM19" s="41" t="str">
         <f>IF(ISERROR((AL19+AL20)*1000/BK19),"",(AL19+AL20)*1000/BK19)</f>
         <v/>
       </c>
-      <c r="BN19" s="43" t="str">
+      <c r="BN19" s="41" t="str">
         <f>IF(SUM(BL19,BM19)=0,"",SUM(BL19,BM19))</f>
         <v/>
       </c>
-      <c r="BO19" s="43" t="str">
+      <c r="BO19" s="41" t="str">
         <f>IF(SUM(AQ19,AQ20)=0,"",SUM(AQ19,AQ20))</f>
         <v/>
       </c>
-      <c r="BP19" s="43" t="str">
+      <c r="BP19" s="41" t="str">
         <f>IF(ISERROR((AK19+AK20)*1000/BO19),"",(AK19+AK20)*1000/BO19)</f>
         <v/>
       </c>
-      <c r="BQ19" s="43" t="str">
+      <c r="BQ19" s="41" t="str">
         <f>IF(ISERROR((AL19+AL20)*1000/BO19),"",(AL19+AL20)*1000/BO19)</f>
         <v/>
       </c>
-      <c r="BR19" s="44" t="str">
+      <c r="BR19" s="37" t="str">
         <f>IF(SUM(BP19,BQ19)=0,"",SUM(BP19,BQ19))</f>
         <v/>
       </c>
@@ -4363,7 +4363,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR20" s="43"/>
+      <c r="AR20" s="41"/>
       <c r="AS20" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4436,14 +4436,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK20" s="43"/>
-      <c r="BL20" s="43"/>
-      <c r="BM20" s="43"/>
-      <c r="BN20" s="43"/>
-      <c r="BO20" s="43"/>
-      <c r="BP20" s="43"/>
-      <c r="BQ20" s="43"/>
-      <c r="BR20" s="44"/>
+      <c r="BK20" s="41"/>
+      <c r="BL20" s="41"/>
+      <c r="BM20" s="41"/>
+      <c r="BN20" s="41"/>
+      <c r="BO20" s="41"/>
+      <c r="BP20" s="41"/>
+      <c r="BQ20" s="41"/>
+      <c r="BR20" s="37"/>
     </row>
     <row r="21" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42">
@@ -4511,7 +4511,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR21" s="43" t="str">
+      <c r="AR21" s="41" t="str">
         <f>IF(_tagNameDatas!C18="","",_tagNameDatas!C18)</f>
         <v/>
       </c>
@@ -4587,35 +4587,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK21" s="43" t="str">
+      <c r="BK21" s="41" t="str">
         <f>IF(SUM(AP21,AP22)=0,"",SUM(AP21,AP22))</f>
         <v/>
       </c>
-      <c r="BL21" s="43" t="str">
+      <c r="BL21" s="41" t="str">
         <f>IF(ISERROR((AK21+AK22)*1000/BK21),"",(AK21+AK22)*1000/BK21)</f>
         <v/>
       </c>
-      <c r="BM21" s="43" t="str">
+      <c r="BM21" s="41" t="str">
         <f>IF(ISERROR((AL21+AL22)*1000/BK21),"",(AL21+AL22)*1000/BK21)</f>
         <v/>
       </c>
-      <c r="BN21" s="43" t="str">
+      <c r="BN21" s="41" t="str">
         <f>IF(SUM(BL21,BM21)=0,"",SUM(BL21,BM21))</f>
         <v/>
       </c>
-      <c r="BO21" s="43" t="str">
+      <c r="BO21" s="41" t="str">
         <f>IF(SUM(AQ21,AQ22)=0,"",SUM(AQ21,AQ22))</f>
         <v/>
       </c>
-      <c r="BP21" s="43" t="str">
+      <c r="BP21" s="41" t="str">
         <f>IF(ISERROR((AK21+AK22)*1000/BO21),"",(AK21+AK22)*1000/BO21)</f>
         <v/>
       </c>
-      <c r="BQ21" s="43" t="str">
+      <c r="BQ21" s="41" t="str">
         <f>IF(ISERROR((AL21+AL22)*1000/BO21),"",(AL21+AL22)*1000/BO21)</f>
         <v/>
       </c>
-      <c r="BR21" s="44" t="str">
+      <c r="BR21" s="37" t="str">
         <f>IF(SUM(BP21,BQ21)=0,"",SUM(BP21,BQ21))</f>
         <v/>
       </c>
@@ -4684,7 +4684,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR22" s="43"/>
+      <c r="AR22" s="41"/>
       <c r="AS22" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4757,14 +4757,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK22" s="43"/>
-      <c r="BL22" s="43"/>
-      <c r="BM22" s="43"/>
-      <c r="BN22" s="43"/>
-      <c r="BO22" s="43"/>
-      <c r="BP22" s="43"/>
-      <c r="BQ22" s="43"/>
-      <c r="BR22" s="44"/>
+      <c r="BK22" s="41"/>
+      <c r="BL22" s="41"/>
+      <c r="BM22" s="41"/>
+      <c r="BN22" s="41"/>
+      <c r="BO22" s="41"/>
+      <c r="BP22" s="41"/>
+      <c r="BQ22" s="41"/>
+      <c r="BR22" s="37"/>
     </row>
     <row r="23" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42">
@@ -4832,7 +4832,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR23" s="43" t="str">
+      <c r="AR23" s="41" t="str">
         <f>IF(_tagNameDatas!C20="","",_tagNameDatas!C20)</f>
         <v/>
       </c>
@@ -4908,35 +4908,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK23" s="43" t="str">
+      <c r="BK23" s="41" t="str">
         <f>IF(SUM(AP23,AP24)=0,"",SUM(AP23,AP24))</f>
         <v/>
       </c>
-      <c r="BL23" s="43" t="str">
+      <c r="BL23" s="41" t="str">
         <f>IF(ISERROR((AK23+AK24)*1000/BK23),"",(AK23+AK24)*1000/BK23)</f>
         <v/>
       </c>
-      <c r="BM23" s="43" t="str">
+      <c r="BM23" s="41" t="str">
         <f>IF(ISERROR((AL23+AL24)*1000/BK23),"",(AL23+AL24)*1000/BK23)</f>
         <v/>
       </c>
-      <c r="BN23" s="43" t="str">
+      <c r="BN23" s="41" t="str">
         <f>IF(SUM(BL23,BM23)=0,"",SUM(BL23,BM23))</f>
         <v/>
       </c>
-      <c r="BO23" s="43" t="str">
+      <c r="BO23" s="41" t="str">
         <f>IF(SUM(AQ23,AQ24)=0,"",SUM(AQ23,AQ24))</f>
         <v/>
       </c>
-      <c r="BP23" s="43" t="str">
+      <c r="BP23" s="41" t="str">
         <f>IF(ISERROR((AK23+AK24)*1000/BO23),"",(AK23+AK24)*1000/BO23)</f>
         <v/>
       </c>
-      <c r="BQ23" s="43" t="str">
+      <c r="BQ23" s="41" t="str">
         <f>IF(ISERROR((AL23+AL24)*1000/BO23),"",(AL23+AL24)*1000/BO23)</f>
         <v/>
       </c>
-      <c r="BR23" s="44" t="str">
+      <c r="BR23" s="37" t="str">
         <f>IF(SUM(BP23,BQ23)=0,"",SUM(BP23,BQ23))</f>
         <v/>
       </c>
@@ -5005,7 +5005,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR24" s="43"/>
+      <c r="AR24" s="41"/>
       <c r="AS24" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5078,14 +5078,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK24" s="43"/>
-      <c r="BL24" s="43"/>
-      <c r="BM24" s="43"/>
-      <c r="BN24" s="43"/>
-      <c r="BO24" s="43"/>
-      <c r="BP24" s="43"/>
-      <c r="BQ24" s="43"/>
-      <c r="BR24" s="44"/>
+      <c r="BK24" s="41"/>
+      <c r="BL24" s="41"/>
+      <c r="BM24" s="41"/>
+      <c r="BN24" s="41"/>
+      <c r="BO24" s="41"/>
+      <c r="BP24" s="41"/>
+      <c r="BQ24" s="41"/>
+      <c r="BR24" s="37"/>
     </row>
     <row r="25" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42">
@@ -5153,7 +5153,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR25" s="43" t="str">
+      <c r="AR25" s="41" t="str">
         <f>IF(_tagNameDatas!C22="","",_tagNameDatas!C22)</f>
         <v/>
       </c>
@@ -5229,35 +5229,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK25" s="43" t="str">
+      <c r="BK25" s="41" t="str">
         <f>IF(SUM(AP25,AP26)=0,"",SUM(AP25,AP26))</f>
         <v/>
       </c>
-      <c r="BL25" s="43" t="str">
+      <c r="BL25" s="41" t="str">
         <f>IF(ISERROR((AK25+AK26)*1000/BK25),"",(AK25+AK26)*1000/BK25)</f>
         <v/>
       </c>
-      <c r="BM25" s="43" t="str">
+      <c r="BM25" s="41" t="str">
         <f>IF(ISERROR((AL25+AL26)*1000/BK25),"",(AL25+AL26)*1000/BK25)</f>
         <v/>
       </c>
-      <c r="BN25" s="43" t="str">
+      <c r="BN25" s="41" t="str">
         <f>IF(SUM(BL25,BM25)=0,"",SUM(BL25,BM25))</f>
         <v/>
       </c>
-      <c r="BO25" s="43" t="str">
+      <c r="BO25" s="41" t="str">
         <f>IF(SUM(AQ25,AQ26)=0,"",SUM(AQ25,AQ26))</f>
         <v/>
       </c>
-      <c r="BP25" s="43" t="str">
+      <c r="BP25" s="41" t="str">
         <f>IF(ISERROR((AK25+AK26)*1000/BO25),"",(AK25+AK26)*1000/BO25)</f>
         <v/>
       </c>
-      <c r="BQ25" s="43" t="str">
+      <c r="BQ25" s="41" t="str">
         <f>IF(ISERROR((AL25+AL26)*1000/BO25),"",(AL25+AL26)*1000/BO25)</f>
         <v/>
       </c>
-      <c r="BR25" s="44" t="str">
+      <c r="BR25" s="37" t="str">
         <f>IF(SUM(BP25,BQ25)=0,"",SUM(BP25,BQ25))</f>
         <v/>
       </c>
@@ -5326,7 +5326,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR26" s="43"/>
+      <c r="AR26" s="41"/>
       <c r="AS26" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5399,14 +5399,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK26" s="43"/>
-      <c r="BL26" s="43"/>
-      <c r="BM26" s="43"/>
-      <c r="BN26" s="43"/>
-      <c r="BO26" s="43"/>
-      <c r="BP26" s="43"/>
-      <c r="BQ26" s="43"/>
-      <c r="BR26" s="44"/>
+      <c r="BK26" s="41"/>
+      <c r="BL26" s="41"/>
+      <c r="BM26" s="41"/>
+      <c r="BN26" s="41"/>
+      <c r="BO26" s="41"/>
+      <c r="BP26" s="41"/>
+      <c r="BQ26" s="41"/>
+      <c r="BR26" s="37"/>
     </row>
     <row r="27" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42">
@@ -5474,7 +5474,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR27" s="43" t="str">
+      <c r="AR27" s="41" t="str">
         <f>IF(_tagNameDatas!C24="","",_tagNameDatas!C24)</f>
         <v/>
       </c>
@@ -5550,35 +5550,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK27" s="43" t="str">
+      <c r="BK27" s="41" t="str">
         <f>IF(SUM(AP27,AP28)=0,"",SUM(AP27,AP28))</f>
         <v/>
       </c>
-      <c r="BL27" s="43" t="str">
+      <c r="BL27" s="41" t="str">
         <f>IF(ISERROR((AK27+AK28)*1000/BK27),"",(AK27+AK28)*1000/BK27)</f>
         <v/>
       </c>
-      <c r="BM27" s="43" t="str">
+      <c r="BM27" s="41" t="str">
         <f>IF(ISERROR((AL27+AL28)*1000/BK27),"",(AL27+AL28)*1000/BK27)</f>
         <v/>
       </c>
-      <c r="BN27" s="43" t="str">
+      <c r="BN27" s="41" t="str">
         <f>IF(SUM(BL27,BM27)=0,"",SUM(BL27,BM27))</f>
         <v/>
       </c>
-      <c r="BO27" s="43" t="str">
+      <c r="BO27" s="41" t="str">
         <f>IF(SUM(AQ27,AQ28)=0,"",SUM(AQ27,AQ28))</f>
         <v/>
       </c>
-      <c r="BP27" s="43" t="str">
+      <c r="BP27" s="41" t="str">
         <f>IF(ISERROR((AK27+AK28)*1000/BO27),"",(AK27+AK28)*1000/BO27)</f>
         <v/>
       </c>
-      <c r="BQ27" s="43" t="str">
+      <c r="BQ27" s="41" t="str">
         <f>IF(ISERROR((AL27+AL28)*1000/BO27),"",(AL27+AL28)*1000/BO27)</f>
         <v/>
       </c>
-      <c r="BR27" s="44" t="str">
+      <c r="BR27" s="37" t="str">
         <f>IF(SUM(BP27,BQ27)=0,"",SUM(BP27,BQ27))</f>
         <v/>
       </c>
@@ -5647,7 +5647,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR28" s="43"/>
+      <c r="AR28" s="41"/>
       <c r="AS28" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5720,14 +5720,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK28" s="43"/>
-      <c r="BL28" s="43"/>
-      <c r="BM28" s="43"/>
-      <c r="BN28" s="43"/>
-      <c r="BO28" s="43"/>
-      <c r="BP28" s="43"/>
-      <c r="BQ28" s="43"/>
-      <c r="BR28" s="44"/>
+      <c r="BK28" s="41"/>
+      <c r="BL28" s="41"/>
+      <c r="BM28" s="41"/>
+      <c r="BN28" s="41"/>
+      <c r="BO28" s="41"/>
+      <c r="BP28" s="41"/>
+      <c r="BQ28" s="41"/>
+      <c r="BR28" s="37"/>
     </row>
     <row r="29" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42">
@@ -5795,7 +5795,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR29" s="43" t="str">
+      <c r="AR29" s="41" t="str">
         <f>IF(_tagNameDatas!C26="","",_tagNameDatas!C26)</f>
         <v/>
       </c>
@@ -5871,35 +5871,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK29" s="43" t="str">
+      <c r="BK29" s="41" t="str">
         <f>IF(SUM(AP29,AP30)=0,"",SUM(AP29,AP30))</f>
         <v/>
       </c>
-      <c r="BL29" s="43" t="str">
+      <c r="BL29" s="41" t="str">
         <f>IF(ISERROR((AK29+AK30)*1000/BK29),"",(AK29+AK30)*1000/BK29)</f>
         <v/>
       </c>
-      <c r="BM29" s="43" t="str">
+      <c r="BM29" s="41" t="str">
         <f>IF(ISERROR((AL29+AL30)*1000/BK29),"",(AL29+AL30)*1000/BK29)</f>
         <v/>
       </c>
-      <c r="BN29" s="43" t="str">
+      <c r="BN29" s="41" t="str">
         <f>IF(SUM(BL29,BM29)=0,"",SUM(BL29,BM29))</f>
         <v/>
       </c>
-      <c r="BO29" s="43" t="str">
+      <c r="BO29" s="41" t="str">
         <f>IF(SUM(AQ29,AQ30)=0,"",SUM(AQ29,AQ30))</f>
         <v/>
       </c>
-      <c r="BP29" s="43" t="str">
+      <c r="BP29" s="41" t="str">
         <f>IF(ISERROR((AK29+AK30)*1000/BO29),"",(AK29+AK30)*1000/BO29)</f>
         <v/>
       </c>
-      <c r="BQ29" s="43" t="str">
+      <c r="BQ29" s="41" t="str">
         <f>IF(ISERROR((AL29+AL30)*1000/BO29),"",(AL29+AL30)*1000/BO29)</f>
         <v/>
       </c>
-      <c r="BR29" s="44" t="str">
+      <c r="BR29" s="37" t="str">
         <f>IF(SUM(BP29,BQ29)=0,"",SUM(BP29,BQ29))</f>
         <v/>
       </c>
@@ -5968,7 +5968,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR30" s="43"/>
+      <c r="AR30" s="41"/>
       <c r="AS30" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -6041,14 +6041,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK30" s="43"/>
-      <c r="BL30" s="43"/>
-      <c r="BM30" s="43"/>
-      <c r="BN30" s="43"/>
-      <c r="BO30" s="43"/>
-      <c r="BP30" s="43"/>
-      <c r="BQ30" s="43"/>
-      <c r="BR30" s="44"/>
+      <c r="BK30" s="41"/>
+      <c r="BL30" s="41"/>
+      <c r="BM30" s="41"/>
+      <c r="BN30" s="41"/>
+      <c r="BO30" s="41"/>
+      <c r="BP30" s="41"/>
+      <c r="BQ30" s="41"/>
+      <c r="BR30" s="37"/>
     </row>
     <row r="31" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42">
@@ -6116,7 +6116,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR31" s="43" t="str">
+      <c r="AR31" s="41" t="str">
         <f>IF(_tagNameDatas!C28="","",_tagNameDatas!C28)</f>
         <v/>
       </c>
@@ -6192,35 +6192,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK31" s="43" t="str">
+      <c r="BK31" s="41" t="str">
         <f>IF(SUM(AP31,AP32)=0,"",SUM(AP31,AP32))</f>
         <v/>
       </c>
-      <c r="BL31" s="43" t="str">
+      <c r="BL31" s="41" t="str">
         <f>IF(ISERROR((AK31+AK32)*1000/BK31),"",(AK31+AK32)*1000/BK31)</f>
         <v/>
       </c>
-      <c r="BM31" s="43" t="str">
+      <c r="BM31" s="41" t="str">
         <f>IF(ISERROR((AL31+AL32)*1000/BK31),"",(AL31+AL32)*1000/BK31)</f>
         <v/>
       </c>
-      <c r="BN31" s="43" t="str">
+      <c r="BN31" s="41" t="str">
         <f>IF(SUM(BL31,BM31)=0,"",SUM(BL31,BM31))</f>
         <v/>
       </c>
-      <c r="BO31" s="43" t="str">
+      <c r="BO31" s="41" t="str">
         <f>IF(SUM(AQ31,AQ32)=0,"",SUM(AQ31,AQ32))</f>
         <v/>
       </c>
-      <c r="BP31" s="43" t="str">
+      <c r="BP31" s="41" t="str">
         <f>IF(ISERROR((AK31+AK32)*1000/BO31),"",(AK31+AK32)*1000/BO31)</f>
         <v/>
       </c>
-      <c r="BQ31" s="43" t="str">
+      <c r="BQ31" s="41" t="str">
         <f>IF(ISERROR((AL31+AL32)*1000/BO31),"",(AL31+AL32)*1000/BO31)</f>
         <v/>
       </c>
-      <c r="BR31" s="44" t="str">
+      <c r="BR31" s="37" t="str">
         <f>IF(SUM(BP31,BQ31)=0,"",SUM(BP31,BQ31))</f>
         <v/>
       </c>
@@ -6289,7 +6289,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR32" s="43"/>
+      <c r="AR32" s="41"/>
       <c r="AS32" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -6362,14 +6362,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK32" s="43"/>
-      <c r="BL32" s="43"/>
-      <c r="BM32" s="43"/>
-      <c r="BN32" s="43"/>
-      <c r="BO32" s="43"/>
-      <c r="BP32" s="43"/>
-      <c r="BQ32" s="43"/>
-      <c r="BR32" s="44"/>
+      <c r="BK32" s="41"/>
+      <c r="BL32" s="41"/>
+      <c r="BM32" s="41"/>
+      <c r="BN32" s="41"/>
+      <c r="BO32" s="41"/>
+      <c r="BP32" s="41"/>
+      <c r="BQ32" s="41"/>
+      <c r="BR32" s="37"/>
     </row>
     <row r="33" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42">
@@ -6437,7 +6437,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR33" s="43" t="str">
+      <c r="AR33" s="41" t="str">
         <f>IF(_tagNameDatas!C30="","",_tagNameDatas!C30)</f>
         <v/>
       </c>
@@ -6513,35 +6513,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK33" s="43" t="str">
+      <c r="BK33" s="41" t="str">
         <f>IF(SUM(AP33,AP34)=0,"",SUM(AP33,AP34))</f>
         <v/>
       </c>
-      <c r="BL33" s="43" t="str">
+      <c r="BL33" s="41" t="str">
         <f>IF(ISERROR((AK33+AK34)*1000/BK33),"",(AK33+AK34)*1000/BK33)</f>
         <v/>
       </c>
-      <c r="BM33" s="43" t="str">
+      <c r="BM33" s="41" t="str">
         <f>IF(ISERROR((AL33+AL34)*1000/BK33),"",(AL33+AL34)*1000/BK33)</f>
         <v/>
       </c>
-      <c r="BN33" s="43" t="str">
+      <c r="BN33" s="41" t="str">
         <f>IF(SUM(BL33,BM33)=0,"",SUM(BL33,BM33))</f>
         <v/>
       </c>
-      <c r="BO33" s="43" t="str">
+      <c r="BO33" s="41" t="str">
         <f>IF(SUM(AQ33,AQ34)=0,"",SUM(AQ33,AQ34))</f>
         <v/>
       </c>
-      <c r="BP33" s="43" t="str">
+      <c r="BP33" s="41" t="str">
         <f>IF(ISERROR((AK33+AK34)*1000/BO33),"",(AK33+AK34)*1000/BO33)</f>
         <v/>
       </c>
-      <c r="BQ33" s="43" t="str">
+      <c r="BQ33" s="41" t="str">
         <f>IF(ISERROR((AL33+AL34)*1000/BO33),"",(AL33+AL34)*1000/BO33)</f>
         <v/>
       </c>
-      <c r="BR33" s="44" t="str">
+      <c r="BR33" s="37" t="str">
         <f>IF(SUM(BP33,BQ33)=0,"",SUM(BP33,BQ33))</f>
         <v/>
       </c>
@@ -6610,7 +6610,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR34" s="43"/>
+      <c r="AR34" s="41"/>
       <c r="AS34" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -6683,14 +6683,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK34" s="43"/>
-      <c r="BL34" s="43"/>
-      <c r="BM34" s="43"/>
-      <c r="BN34" s="43"/>
-      <c r="BO34" s="43"/>
-      <c r="BP34" s="43"/>
-      <c r="BQ34" s="43"/>
-      <c r="BR34" s="44"/>
+      <c r="BK34" s="41"/>
+      <c r="BL34" s="41"/>
+      <c r="BM34" s="41"/>
+      <c r="BN34" s="41"/>
+      <c r="BO34" s="41"/>
+      <c r="BP34" s="41"/>
+      <c r="BQ34" s="41"/>
+      <c r="BR34" s="37"/>
     </row>
     <row r="35" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42">
@@ -6758,7 +6758,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR35" s="43" t="str">
+      <c r="AR35" s="41" t="str">
         <f>IF(_tagNameDatas!C32="","",_tagNameDatas!C32)</f>
         <v/>
       </c>
@@ -6834,35 +6834,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK35" s="43" t="str">
+      <c r="BK35" s="41" t="str">
         <f>IF(SUM(AP35,AP36)=0,"",SUM(AP35,AP36))</f>
         <v/>
       </c>
-      <c r="BL35" s="43" t="str">
+      <c r="BL35" s="41" t="str">
         <f>IF(ISERROR((AK35+AK36)*1000/BK35),"",(AK35+AK36)*1000/BK35)</f>
         <v/>
       </c>
-      <c r="BM35" s="43" t="str">
+      <c r="BM35" s="41" t="str">
         <f>IF(ISERROR((AL35+AL36)*1000/BK35),"",(AL35+AL36)*1000/BK35)</f>
         <v/>
       </c>
-      <c r="BN35" s="43" t="str">
+      <c r="BN35" s="41" t="str">
         <f>IF(SUM(BL35,BM35)=0,"",SUM(BL35,BM35))</f>
         <v/>
       </c>
-      <c r="BO35" s="43" t="str">
+      <c r="BO35" s="41" t="str">
         <f>IF(SUM(AQ35,AQ36)=0,"",SUM(AQ35,AQ36))</f>
         <v/>
       </c>
-      <c r="BP35" s="43" t="str">
+      <c r="BP35" s="41" t="str">
         <f>IF(ISERROR((AK35+AK36)*1000/BO35),"",(AK35+AK36)*1000/BO35)</f>
         <v/>
       </c>
-      <c r="BQ35" s="43" t="str">
+      <c r="BQ35" s="41" t="str">
         <f>IF(ISERROR((AL35+AL36)*1000/BO35),"",(AL35+AL36)*1000/BO35)</f>
         <v/>
       </c>
-      <c r="BR35" s="44" t="str">
+      <c r="BR35" s="37" t="str">
         <f>IF(SUM(BP35,BQ35)=0,"",SUM(BP35,BQ35))</f>
         <v/>
       </c>
@@ -6931,7 +6931,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR36" s="43"/>
+      <c r="AR36" s="41"/>
       <c r="AS36" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7004,14 +7004,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK36" s="43"/>
-      <c r="BL36" s="43"/>
-      <c r="BM36" s="43"/>
-      <c r="BN36" s="43"/>
-      <c r="BO36" s="43"/>
-      <c r="BP36" s="43"/>
-      <c r="BQ36" s="43"/>
-      <c r="BR36" s="44"/>
+      <c r="BK36" s="41"/>
+      <c r="BL36" s="41"/>
+      <c r="BM36" s="41"/>
+      <c r="BN36" s="41"/>
+      <c r="BO36" s="41"/>
+      <c r="BP36" s="41"/>
+      <c r="BQ36" s="41"/>
+      <c r="BR36" s="37"/>
     </row>
     <row r="37" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42">
@@ -7079,7 +7079,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR37" s="43" t="str">
+      <c r="AR37" s="41" t="str">
         <f>IF(_tagNameDatas!C34="","",_tagNameDatas!C34)</f>
         <v/>
       </c>
@@ -7155,35 +7155,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK37" s="43" t="str">
+      <c r="BK37" s="41" t="str">
         <f>IF(SUM(AP37,AP38)=0,"",SUM(AP37,AP38))</f>
         <v/>
       </c>
-      <c r="BL37" s="43" t="str">
+      <c r="BL37" s="41" t="str">
         <f>IF(ISERROR((AK37+AK38)*1000/BK37),"",(AK37+AK38)*1000/BK37)</f>
         <v/>
       </c>
-      <c r="BM37" s="43" t="str">
+      <c r="BM37" s="41" t="str">
         <f>IF(ISERROR((AL37+AL38)*1000/BK37),"",(AL37+AL38)*1000/BK37)</f>
         <v/>
       </c>
-      <c r="BN37" s="43" t="str">
+      <c r="BN37" s="41" t="str">
         <f>IF(SUM(BL37,BM37)=0,"",SUM(BL37,BM37))</f>
         <v/>
       </c>
-      <c r="BO37" s="43" t="str">
+      <c r="BO37" s="41" t="str">
         <f>IF(SUM(AQ37,AQ38)=0,"",SUM(AQ37,AQ38))</f>
         <v/>
       </c>
-      <c r="BP37" s="43" t="str">
+      <c r="BP37" s="41" t="str">
         <f>IF(ISERROR((AK37+AK38)*1000/BO37),"",(AK37+AK38)*1000/BO37)</f>
         <v/>
       </c>
-      <c r="BQ37" s="43" t="str">
+      <c r="BQ37" s="41" t="str">
         <f>IF(ISERROR((AL37+AL38)*1000/BO37),"",(AL37+AL38)*1000/BO37)</f>
         <v/>
       </c>
-      <c r="BR37" s="44" t="str">
+      <c r="BR37" s="37" t="str">
         <f>IF(SUM(BP37,BQ37)=0,"",SUM(BP37,BQ37))</f>
         <v/>
       </c>
@@ -7252,7 +7252,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR38" s="43"/>
+      <c r="AR38" s="41"/>
       <c r="AS38" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7325,14 +7325,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK38" s="43"/>
-      <c r="BL38" s="43"/>
-      <c r="BM38" s="43"/>
-      <c r="BN38" s="43"/>
-      <c r="BO38" s="43"/>
-      <c r="BP38" s="43"/>
-      <c r="BQ38" s="43"/>
-      <c r="BR38" s="44"/>
+      <c r="BK38" s="41"/>
+      <c r="BL38" s="41"/>
+      <c r="BM38" s="41"/>
+      <c r="BN38" s="41"/>
+      <c r="BO38" s="41"/>
+      <c r="BP38" s="41"/>
+      <c r="BQ38" s="41"/>
+      <c r="BR38" s="37"/>
     </row>
     <row r="39" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42">
@@ -7400,7 +7400,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR39" s="43" t="str">
+      <c r="AR39" s="41" t="str">
         <f>IF(_tagNameDatas!C36="","",_tagNameDatas!C36)</f>
         <v/>
       </c>
@@ -7476,35 +7476,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK39" s="43" t="str">
+      <c r="BK39" s="41" t="str">
         <f>IF(SUM(AP39,AP40)=0,"",SUM(AP39,AP40))</f>
         <v/>
       </c>
-      <c r="BL39" s="43" t="str">
+      <c r="BL39" s="41" t="str">
         <f>IF(ISERROR((AK39+AK40)*1000/BK39),"",(AK39+AK40)*1000/BK39)</f>
         <v/>
       </c>
-      <c r="BM39" s="43" t="str">
+      <c r="BM39" s="41" t="str">
         <f>IF(ISERROR((AL39+AL40)*1000/BK39),"",(AL39+AL40)*1000/BK39)</f>
         <v/>
       </c>
-      <c r="BN39" s="43" t="str">
+      <c r="BN39" s="41" t="str">
         <f>IF(SUM(BL39,BM39)=0,"",SUM(BL39,BM39))</f>
         <v/>
       </c>
-      <c r="BO39" s="43" t="str">
+      <c r="BO39" s="41" t="str">
         <f>IF(SUM(AQ39,AQ40)=0,"",SUM(AQ39,AQ40))</f>
         <v/>
       </c>
-      <c r="BP39" s="43" t="str">
+      <c r="BP39" s="41" t="str">
         <f>IF(ISERROR((AK39+AK40)*1000/BO39),"",(AK39+AK40)*1000/BO39)</f>
         <v/>
       </c>
-      <c r="BQ39" s="43" t="str">
+      <c r="BQ39" s="41" t="str">
         <f>IF(ISERROR((AL39+AL40)*1000/BO39),"",(AL39+AL40)*1000/BO39)</f>
         <v/>
       </c>
-      <c r="BR39" s="44" t="str">
+      <c r="BR39" s="37" t="str">
         <f>IF(SUM(BP39,BQ39)=0,"",SUM(BP39,BQ39))</f>
         <v/>
       </c>
@@ -7573,7 +7573,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR40" s="43"/>
+      <c r="AR40" s="41"/>
       <c r="AS40" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7646,14 +7646,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK40" s="43"/>
-      <c r="BL40" s="43"/>
-      <c r="BM40" s="43"/>
-      <c r="BN40" s="43"/>
-      <c r="BO40" s="43"/>
-      <c r="BP40" s="43"/>
-      <c r="BQ40" s="43"/>
-      <c r="BR40" s="44"/>
+      <c r="BK40" s="41"/>
+      <c r="BL40" s="41"/>
+      <c r="BM40" s="41"/>
+      <c r="BN40" s="41"/>
+      <c r="BO40" s="41"/>
+      <c r="BP40" s="41"/>
+      <c r="BQ40" s="41"/>
+      <c r="BR40" s="37"/>
     </row>
     <row r="41" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42">
@@ -7721,7 +7721,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR41" s="43" t="str">
+      <c r="AR41" s="41" t="str">
         <f>IF(_tagNameDatas!C38="","",_tagNameDatas!C38)</f>
         <v/>
       </c>
@@ -7797,35 +7797,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK41" s="43" t="str">
+      <c r="BK41" s="41" t="str">
         <f>IF(SUM(AP41,AP42)=0,"",SUM(AP41,AP42))</f>
         <v/>
       </c>
-      <c r="BL41" s="43" t="str">
+      <c r="BL41" s="41" t="str">
         <f>IF(ISERROR((AK41+AK42)*1000/BK41),"",(AK41+AK42)*1000/BK41)</f>
         <v/>
       </c>
-      <c r="BM41" s="43" t="str">
+      <c r="BM41" s="41" t="str">
         <f>IF(ISERROR((AL41+AL42)*1000/BK41),"",(AL41+AL42)*1000/BK41)</f>
         <v/>
       </c>
-      <c r="BN41" s="43" t="str">
+      <c r="BN41" s="41" t="str">
         <f>IF(SUM(BL41,BM41)=0,"",SUM(BL41,BM41))</f>
         <v/>
       </c>
-      <c r="BO41" s="43" t="str">
+      <c r="BO41" s="41" t="str">
         <f>IF(SUM(AQ41,AQ42)=0,"",SUM(AQ41,AQ42))</f>
         <v/>
       </c>
-      <c r="BP41" s="43" t="str">
+      <c r="BP41" s="41" t="str">
         <f>IF(ISERROR((AK41+AK42)*1000/BO41),"",(AK41+AK42)*1000/BO41)</f>
         <v/>
       </c>
-      <c r="BQ41" s="43" t="str">
+      <c r="BQ41" s="41" t="str">
         <f>IF(ISERROR((AL41+AL42)*1000/BO41),"",(AL41+AL42)*1000/BO41)</f>
         <v/>
       </c>
-      <c r="BR41" s="44" t="str">
+      <c r="BR41" s="37" t="str">
         <f>IF(SUM(BP41,BQ41)=0,"",SUM(BP41,BQ41))</f>
         <v/>
       </c>
@@ -7894,7 +7894,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR42" s="43"/>
+      <c r="AR42" s="41"/>
       <c r="AS42" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -7967,14 +7967,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK42" s="43"/>
-      <c r="BL42" s="43"/>
-      <c r="BM42" s="43"/>
-      <c r="BN42" s="43"/>
-      <c r="BO42" s="43"/>
-      <c r="BP42" s="43"/>
-      <c r="BQ42" s="43"/>
-      <c r="BR42" s="44"/>
+      <c r="BK42" s="41"/>
+      <c r="BL42" s="41"/>
+      <c r="BM42" s="41"/>
+      <c r="BN42" s="41"/>
+      <c r="BO42" s="41"/>
+      <c r="BP42" s="41"/>
+      <c r="BQ42" s="41"/>
+      <c r="BR42" s="37"/>
     </row>
     <row r="43" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="42">
@@ -8042,7 +8042,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR43" s="43" t="str">
+      <c r="AR43" s="41" t="str">
         <f>IF(_tagNameDatas!C40="","",_tagNameDatas!C40)</f>
         <v/>
       </c>
@@ -8118,35 +8118,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK43" s="43" t="str">
+      <c r="BK43" s="41" t="str">
         <f>IF(SUM(AP43,AP44)=0,"",SUM(AP43,AP44))</f>
         <v/>
       </c>
-      <c r="BL43" s="43" t="str">
+      <c r="BL43" s="41" t="str">
         <f>IF(ISERROR((AK43+AK44)*1000/BK43),"",(AK43+AK44)*1000/BK43)</f>
         <v/>
       </c>
-      <c r="BM43" s="43" t="str">
+      <c r="BM43" s="41" t="str">
         <f>IF(ISERROR((AL43+AL44)*1000/BK43),"",(AL43+AL44)*1000/BK43)</f>
         <v/>
       </c>
-      <c r="BN43" s="43" t="str">
+      <c r="BN43" s="41" t="str">
         <f>IF(SUM(BL43,BM43)=0,"",SUM(BL43,BM43))</f>
         <v/>
       </c>
-      <c r="BO43" s="43" t="str">
+      <c r="BO43" s="41" t="str">
         <f>IF(SUM(AQ43,AQ44)=0,"",SUM(AQ43,AQ44))</f>
         <v/>
       </c>
-      <c r="BP43" s="43" t="str">
+      <c r="BP43" s="41" t="str">
         <f>IF(ISERROR((AK43+AK44)*1000/BO43),"",(AK43+AK44)*1000/BO43)</f>
         <v/>
       </c>
-      <c r="BQ43" s="43" t="str">
+      <c r="BQ43" s="41" t="str">
         <f>IF(ISERROR((AL43+AL44)*1000/BO43),"",(AL43+AL44)*1000/BO43)</f>
         <v/>
       </c>
-      <c r="BR43" s="44" t="str">
+      <c r="BR43" s="37" t="str">
         <f>IF(SUM(BP43,BQ43)=0,"",SUM(BP43,BQ43))</f>
         <v/>
       </c>
@@ -8215,7 +8215,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR44" s="43"/>
+      <c r="AR44" s="41"/>
       <c r="AS44" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8288,14 +8288,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK44" s="43"/>
-      <c r="BL44" s="43"/>
-      <c r="BM44" s="43"/>
-      <c r="BN44" s="43"/>
-      <c r="BO44" s="43"/>
-      <c r="BP44" s="43"/>
-      <c r="BQ44" s="43"/>
-      <c r="BR44" s="44"/>
+      <c r="BK44" s="41"/>
+      <c r="BL44" s="41"/>
+      <c r="BM44" s="41"/>
+      <c r="BN44" s="41"/>
+      <c r="BO44" s="41"/>
+      <c r="BP44" s="41"/>
+      <c r="BQ44" s="41"/>
+      <c r="BR44" s="37"/>
     </row>
     <row r="45" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="42">
@@ -8363,7 +8363,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR45" s="43" t="str">
+      <c r="AR45" s="41" t="str">
         <f>IF(_tagNameDatas!C42="","",_tagNameDatas!C42)</f>
         <v/>
       </c>
@@ -8439,35 +8439,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK45" s="43" t="str">
+      <c r="BK45" s="41" t="str">
         <f>IF(SUM(AP45,AP46)=0,"",SUM(AP45,AP46))</f>
         <v/>
       </c>
-      <c r="BL45" s="43" t="str">
+      <c r="BL45" s="41" t="str">
         <f>IF(ISERROR((AK45+AK46)*1000/BK45),"",(AK45+AK46)*1000/BK45)</f>
         <v/>
       </c>
-      <c r="BM45" s="43" t="str">
+      <c r="BM45" s="41" t="str">
         <f>IF(ISERROR((AL45+AL46)*1000/BK45),"",(AL45+AL46)*1000/BK45)</f>
         <v/>
       </c>
-      <c r="BN45" s="43" t="str">
+      <c r="BN45" s="41" t="str">
         <f>IF(SUM(BL45,BM45)=0,"",SUM(BL45,BM45))</f>
         <v/>
       </c>
-      <c r="BO45" s="43" t="str">
+      <c r="BO45" s="41" t="str">
         <f>IF(SUM(AQ45,AQ46)=0,"",SUM(AQ45,AQ46))</f>
         <v/>
       </c>
-      <c r="BP45" s="43" t="str">
+      <c r="BP45" s="41" t="str">
         <f>IF(ISERROR((AK45+AK46)*1000/BO45),"",(AK45+AK46)*1000/BO45)</f>
         <v/>
       </c>
-      <c r="BQ45" s="43" t="str">
+      <c r="BQ45" s="41" t="str">
         <f>IF(ISERROR((AL45+AL46)*1000/BO45),"",(AL45+AL46)*1000/BO45)</f>
         <v/>
       </c>
-      <c r="BR45" s="44" t="str">
+      <c r="BR45" s="37" t="str">
         <f>IF(SUM(BP45,BQ45)=0,"",SUM(BP45,BQ45))</f>
         <v/>
       </c>
@@ -8536,7 +8536,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR46" s="43"/>
+      <c r="AR46" s="41"/>
       <c r="AS46" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8609,14 +8609,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK46" s="43"/>
-      <c r="BL46" s="43"/>
-      <c r="BM46" s="43"/>
-      <c r="BN46" s="43"/>
-      <c r="BO46" s="43"/>
-      <c r="BP46" s="43"/>
-      <c r="BQ46" s="43"/>
-      <c r="BR46" s="44"/>
+      <c r="BK46" s="41"/>
+      <c r="BL46" s="41"/>
+      <c r="BM46" s="41"/>
+      <c r="BN46" s="41"/>
+      <c r="BO46" s="41"/>
+      <c r="BP46" s="41"/>
+      <c r="BQ46" s="41"/>
+      <c r="BR46" s="37"/>
     </row>
     <row r="47" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="42">
@@ -8684,7 +8684,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR47" s="43" t="str">
+      <c r="AR47" s="41" t="str">
         <f>IF(_tagNameDatas!C44="","",_tagNameDatas!C44)</f>
         <v/>
       </c>
@@ -8760,35 +8760,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK47" s="43" t="str">
+      <c r="BK47" s="41" t="str">
         <f>IF(SUM(AP47,AP48)=0,"",SUM(AP47,AP48))</f>
         <v/>
       </c>
-      <c r="BL47" s="43" t="str">
+      <c r="BL47" s="41" t="str">
         <f>IF(ISERROR((AK47+AK48)*1000/BK47),"",(AK47+AK48)*1000/BK47)</f>
         <v/>
       </c>
-      <c r="BM47" s="43" t="str">
+      <c r="BM47" s="41" t="str">
         <f>IF(ISERROR((AL47+AL48)*1000/BK47),"",(AL47+AL48)*1000/BK47)</f>
         <v/>
       </c>
-      <c r="BN47" s="43" t="str">
+      <c r="BN47" s="41" t="str">
         <f>IF(SUM(BL47,BM47)=0,"",SUM(BL47,BM47))</f>
         <v/>
       </c>
-      <c r="BO47" s="43" t="str">
+      <c r="BO47" s="41" t="str">
         <f>IF(SUM(AQ47,AQ48)=0,"",SUM(AQ47,AQ48))</f>
         <v/>
       </c>
-      <c r="BP47" s="43" t="str">
+      <c r="BP47" s="41" t="str">
         <f>IF(ISERROR((AK47+AK48)*1000/BO47),"",(AK47+AK48)*1000/BO47)</f>
         <v/>
       </c>
-      <c r="BQ47" s="43" t="str">
+      <c r="BQ47" s="41" t="str">
         <f>IF(ISERROR((AL47+AL48)*1000/BO47),"",(AL47+AL48)*1000/BO47)</f>
         <v/>
       </c>
-      <c r="BR47" s="44" t="str">
+      <c r="BR47" s="37" t="str">
         <f>IF(SUM(BP47,BQ47)=0,"",SUM(BP47,BQ47))</f>
         <v/>
       </c>
@@ -8857,7 +8857,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR48" s="43"/>
+      <c r="AR48" s="41"/>
       <c r="AS48" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8930,14 +8930,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK48" s="43"/>
-      <c r="BL48" s="43"/>
-      <c r="BM48" s="43"/>
-      <c r="BN48" s="43"/>
-      <c r="BO48" s="43"/>
-      <c r="BP48" s="43"/>
-      <c r="BQ48" s="43"/>
-      <c r="BR48" s="44"/>
+      <c r="BK48" s="41"/>
+      <c r="BL48" s="41"/>
+      <c r="BM48" s="41"/>
+      <c r="BN48" s="41"/>
+      <c r="BO48" s="41"/>
+      <c r="BP48" s="41"/>
+      <c r="BQ48" s="41"/>
+      <c r="BR48" s="37"/>
     </row>
     <row r="49" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="42">
@@ -9005,7 +9005,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR49" s="43" t="str">
+      <c r="AR49" s="41" t="str">
         <f>IF(_tagNameDatas!C46="","",_tagNameDatas!C46)</f>
         <v/>
       </c>
@@ -9081,35 +9081,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK49" s="43" t="str">
+      <c r="BK49" s="41" t="str">
         <f>IF(SUM(AP49,AP50)=0,"",SUM(AP49,AP50))</f>
         <v/>
       </c>
-      <c r="BL49" s="43" t="str">
+      <c r="BL49" s="41" t="str">
         <f>IF(ISERROR((AK49+AK50)*1000/BK49),"",(AK49+AK50)*1000/BK49)</f>
         <v/>
       </c>
-      <c r="BM49" s="43" t="str">
+      <c r="BM49" s="41" t="str">
         <f>IF(ISERROR((AL49+AL50)*1000/BK49),"",(AL49+AL50)*1000/BK49)</f>
         <v/>
       </c>
-      <c r="BN49" s="43" t="str">
+      <c r="BN49" s="41" t="str">
         <f>IF(SUM(BL49,BM49)=0,"",SUM(BL49,BM49))</f>
         <v/>
       </c>
-      <c r="BO49" s="43" t="str">
+      <c r="BO49" s="41" t="str">
         <f>IF(SUM(AQ49,AQ50)=0,"",SUM(AQ49,AQ50))</f>
         <v/>
       </c>
-      <c r="BP49" s="43" t="str">
+      <c r="BP49" s="41" t="str">
         <f>IF(ISERROR((AK49+AK50)*1000/BO49),"",(AK49+AK50)*1000/BO49)</f>
         <v/>
       </c>
-      <c r="BQ49" s="43" t="str">
+      <c r="BQ49" s="41" t="str">
         <f>IF(ISERROR((AL49+AL50)*1000/BO49),"",(AL49+AL50)*1000/BO49)</f>
         <v/>
       </c>
-      <c r="BR49" s="44" t="str">
+      <c r="BR49" s="37" t="str">
         <f>IF(SUM(BP49,BQ49)=0,"",SUM(BP49,BQ49))</f>
         <v/>
       </c>
@@ -9178,7 +9178,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR50" s="43"/>
+      <c r="AR50" s="41"/>
       <c r="AS50" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9251,14 +9251,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK50" s="43"/>
-      <c r="BL50" s="43"/>
-      <c r="BM50" s="43"/>
-      <c r="BN50" s="43"/>
-      <c r="BO50" s="43"/>
-      <c r="BP50" s="43"/>
-      <c r="BQ50" s="43"/>
-      <c r="BR50" s="44"/>
+      <c r="BK50" s="41"/>
+      <c r="BL50" s="41"/>
+      <c r="BM50" s="41"/>
+      <c r="BN50" s="41"/>
+      <c r="BO50" s="41"/>
+      <c r="BP50" s="41"/>
+      <c r="BQ50" s="41"/>
+      <c r="BR50" s="37"/>
     </row>
     <row r="51" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="42">
@@ -9326,7 +9326,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR51" s="43" t="str">
+      <c r="AR51" s="41" t="str">
         <f>IF(_tagNameDatas!C48="","",_tagNameDatas!C48)</f>
         <v/>
       </c>
@@ -9402,35 +9402,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK51" s="43" t="str">
+      <c r="BK51" s="41" t="str">
         <f>IF(SUM(AP51,AP52)=0,"",SUM(AP51,AP52))</f>
         <v/>
       </c>
-      <c r="BL51" s="43" t="str">
+      <c r="BL51" s="41" t="str">
         <f>IF(ISERROR((AK51+AK52)*1000/BK51),"",(AK51+AK52)*1000/BK51)</f>
         <v/>
       </c>
-      <c r="BM51" s="43" t="str">
+      <c r="BM51" s="41" t="str">
         <f>IF(ISERROR((AL51+AL52)*1000/BK51),"",(AL51+AL52)*1000/BK51)</f>
         <v/>
       </c>
-      <c r="BN51" s="43" t="str">
+      <c r="BN51" s="41" t="str">
         <f>IF(SUM(BL51,BM51)=0,"",SUM(BL51,BM51))</f>
         <v/>
       </c>
-      <c r="BO51" s="43" t="str">
+      <c r="BO51" s="41" t="str">
         <f>IF(SUM(AQ51,AQ52)=0,"",SUM(AQ51,AQ52))</f>
         <v/>
       </c>
-      <c r="BP51" s="43" t="str">
+      <c r="BP51" s="41" t="str">
         <f>IF(ISERROR((AK51+AK52)*1000/BO51),"",(AK51+AK52)*1000/BO51)</f>
         <v/>
       </c>
-      <c r="BQ51" s="43" t="str">
+      <c r="BQ51" s="41" t="str">
         <f>IF(ISERROR((AL51+AL52)*1000/BO51),"",(AL51+AL52)*1000/BO51)</f>
         <v/>
       </c>
-      <c r="BR51" s="44" t="str">
+      <c r="BR51" s="37" t="str">
         <f>IF(SUM(BP51,BQ51)=0,"",SUM(BP51,BQ51))</f>
         <v/>
       </c>
@@ -9499,7 +9499,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR52" s="43"/>
+      <c r="AR52" s="41"/>
       <c r="AS52" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9572,14 +9572,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK52" s="43"/>
-      <c r="BL52" s="43"/>
-      <c r="BM52" s="43"/>
-      <c r="BN52" s="43"/>
-      <c r="BO52" s="43"/>
-      <c r="BP52" s="43"/>
-      <c r="BQ52" s="43"/>
-      <c r="BR52" s="44"/>
+      <c r="BK52" s="41"/>
+      <c r="BL52" s="41"/>
+      <c r="BM52" s="41"/>
+      <c r="BN52" s="41"/>
+      <c r="BO52" s="41"/>
+      <c r="BP52" s="41"/>
+      <c r="BQ52" s="41"/>
+      <c r="BR52" s="37"/>
     </row>
     <row r="53" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="42">
@@ -9647,7 +9647,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR53" s="43" t="str">
+      <c r="AR53" s="41" t="str">
         <f>IF(_tagNameDatas!C50="","",_tagNameDatas!C50)</f>
         <v/>
       </c>
@@ -9723,35 +9723,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK53" s="43" t="str">
+      <c r="BK53" s="41" t="str">
         <f>IF(SUM(AP53,AP54)=0,"",SUM(AP53,AP54))</f>
         <v/>
       </c>
-      <c r="BL53" s="43" t="str">
+      <c r="BL53" s="41" t="str">
         <f>IF(ISERROR((AK53+AK54)*1000/BK53),"",(AK53+AK54)*1000/BK53)</f>
         <v/>
       </c>
-      <c r="BM53" s="43" t="str">
+      <c r="BM53" s="41" t="str">
         <f>IF(ISERROR((AL53+AL54)*1000/BK53),"",(AL53+AL54)*1000/BK53)</f>
         <v/>
       </c>
-      <c r="BN53" s="43" t="str">
+      <c r="BN53" s="41" t="str">
         <f>IF(SUM(BL53,BM53)=0,"",SUM(BL53,BM53))</f>
         <v/>
       </c>
-      <c r="BO53" s="43" t="str">
+      <c r="BO53" s="41" t="str">
         <f>IF(SUM(AQ53,AQ54)=0,"",SUM(AQ53,AQ54))</f>
         <v/>
       </c>
-      <c r="BP53" s="43" t="str">
+      <c r="BP53" s="41" t="str">
         <f>IF(ISERROR((AK53+AK54)*1000/BO53),"",(AK53+AK54)*1000/BO53)</f>
         <v/>
       </c>
-      <c r="BQ53" s="43" t="str">
+      <c r="BQ53" s="41" t="str">
         <f>IF(ISERROR((AL53+AL54)*1000/BO53),"",(AL53+AL54)*1000/BO53)</f>
         <v/>
       </c>
-      <c r="BR53" s="44" t="str">
+      <c r="BR53" s="37" t="str">
         <f>IF(SUM(BP53,BQ53)=0,"",SUM(BP53,BQ53))</f>
         <v/>
       </c>
@@ -9820,7 +9820,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR54" s="43"/>
+      <c r="AR54" s="41"/>
       <c r="AS54" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9893,14 +9893,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK54" s="43"/>
-      <c r="BL54" s="43"/>
-      <c r="BM54" s="43"/>
-      <c r="BN54" s="43"/>
-      <c r="BO54" s="43"/>
-      <c r="BP54" s="43"/>
-      <c r="BQ54" s="43"/>
-      <c r="BR54" s="44"/>
+      <c r="BK54" s="41"/>
+      <c r="BL54" s="41"/>
+      <c r="BM54" s="41"/>
+      <c r="BN54" s="41"/>
+      <c r="BO54" s="41"/>
+      <c r="BP54" s="41"/>
+      <c r="BQ54" s="41"/>
+      <c r="BR54" s="37"/>
     </row>
     <row r="55" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="42">
@@ -9968,7 +9968,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR55" s="43" t="str">
+      <c r="AR55" s="41" t="str">
         <f>IF(_tagNameDatas!C52="","",_tagNameDatas!C52)</f>
         <v/>
       </c>
@@ -10044,35 +10044,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK55" s="43" t="str">
+      <c r="BK55" s="41" t="str">
         <f>IF(SUM(AP55,AP56)=0,"",SUM(AP55,AP56))</f>
         <v/>
       </c>
-      <c r="BL55" s="43" t="str">
+      <c r="BL55" s="41" t="str">
         <f>IF(ISERROR((AK55+AK56)*1000/BK55),"",(AK55+AK56)*1000/BK55)</f>
         <v/>
       </c>
-      <c r="BM55" s="43" t="str">
+      <c r="BM55" s="41" t="str">
         <f>IF(ISERROR((AL55+AL56)*1000/BK55),"",(AL55+AL56)*1000/BK55)</f>
         <v/>
       </c>
-      <c r="BN55" s="43" t="str">
+      <c r="BN55" s="41" t="str">
         <f>IF(SUM(BL55,BM55)=0,"",SUM(BL55,BM55))</f>
         <v/>
       </c>
-      <c r="BO55" s="43" t="str">
+      <c r="BO55" s="41" t="str">
         <f>IF(SUM(AQ55,AQ56)=0,"",SUM(AQ55,AQ56))</f>
         <v/>
       </c>
-      <c r="BP55" s="43" t="str">
+      <c r="BP55" s="41" t="str">
         <f>IF(ISERROR((AK55+AK56)*1000/BO55),"",(AK55+AK56)*1000/BO55)</f>
         <v/>
       </c>
-      <c r="BQ55" s="43" t="str">
+      <c r="BQ55" s="41" t="str">
         <f>IF(ISERROR((AL55+AL56)*1000/BO55),"",(AL55+AL56)*1000/BO55)</f>
         <v/>
       </c>
-      <c r="BR55" s="44" t="str">
+      <c r="BR55" s="37" t="str">
         <f>IF(SUM(BP55,BQ55)=0,"",SUM(BP55,BQ55))</f>
         <v/>
       </c>
@@ -10141,7 +10141,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR56" s="43"/>
+      <c r="AR56" s="41"/>
       <c r="AS56" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -10214,14 +10214,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK56" s="43"/>
-      <c r="BL56" s="43"/>
-      <c r="BM56" s="43"/>
-      <c r="BN56" s="43"/>
-      <c r="BO56" s="43"/>
-      <c r="BP56" s="43"/>
-      <c r="BQ56" s="43"/>
-      <c r="BR56" s="44"/>
+      <c r="BK56" s="41"/>
+      <c r="BL56" s="41"/>
+      <c r="BM56" s="41"/>
+      <c r="BN56" s="41"/>
+      <c r="BO56" s="41"/>
+      <c r="BP56" s="41"/>
+      <c r="BQ56" s="41"/>
+      <c r="BR56" s="37"/>
     </row>
     <row r="57" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="42">
@@ -10289,7 +10289,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR57" s="43" t="str">
+      <c r="AR57" s="41" t="str">
         <f>IF(_tagNameDatas!C54="","",_tagNameDatas!C54)</f>
         <v/>
       </c>
@@ -10365,35 +10365,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK57" s="43" t="str">
+      <c r="BK57" s="41" t="str">
         <f>IF(SUM(AP57,AP58)=0,"",SUM(AP57,AP58))</f>
         <v/>
       </c>
-      <c r="BL57" s="43" t="str">
+      <c r="BL57" s="41" t="str">
         <f>IF(ISERROR((AK57+AK58)*1000/BK57),"",(AK57+AK58)*1000/BK57)</f>
         <v/>
       </c>
-      <c r="BM57" s="43" t="str">
+      <c r="BM57" s="41" t="str">
         <f>IF(ISERROR((AL57+AL58)*1000/BK57),"",(AL57+AL58)*1000/BK57)</f>
         <v/>
       </c>
-      <c r="BN57" s="43" t="str">
+      <c r="BN57" s="41" t="str">
         <f>IF(SUM(BL57,BM57)=0,"",SUM(BL57,BM57))</f>
         <v/>
       </c>
-      <c r="BO57" s="43" t="str">
+      <c r="BO57" s="41" t="str">
         <f>IF(SUM(AQ57,AQ58)=0,"",SUM(AQ57,AQ58))</f>
         <v/>
       </c>
-      <c r="BP57" s="43" t="str">
+      <c r="BP57" s="41" t="str">
         <f>IF(ISERROR((AK57+AK58)*1000/BO57),"",(AK57+AK58)*1000/BO57)</f>
         <v/>
       </c>
-      <c r="BQ57" s="43" t="str">
+      <c r="BQ57" s="41" t="str">
         <f>IF(ISERROR((AL57+AL58)*1000/BO57),"",(AL57+AL58)*1000/BO57)</f>
         <v/>
       </c>
-      <c r="BR57" s="44" t="str">
+      <c r="BR57" s="37" t="str">
         <f>IF(SUM(BP57,BQ57)=0,"",SUM(BP57,BQ57))</f>
         <v/>
       </c>
@@ -10462,7 +10462,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR58" s="43"/>
+      <c r="AR58" s="41"/>
       <c r="AS58" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -10535,14 +10535,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK58" s="43"/>
-      <c r="BL58" s="43"/>
-      <c r="BM58" s="43"/>
-      <c r="BN58" s="43"/>
-      <c r="BO58" s="43"/>
-      <c r="BP58" s="43"/>
-      <c r="BQ58" s="43"/>
-      <c r="BR58" s="44"/>
+      <c r="BK58" s="41"/>
+      <c r="BL58" s="41"/>
+      <c r="BM58" s="41"/>
+      <c r="BN58" s="41"/>
+      <c r="BO58" s="41"/>
+      <c r="BP58" s="41"/>
+      <c r="BQ58" s="41"/>
+      <c r="BR58" s="37"/>
     </row>
     <row r="59" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="42">
@@ -10610,7 +10610,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR59" s="43" t="str">
+      <c r="AR59" s="41" t="str">
         <f>IF(_tagNameDatas!C56="","",_tagNameDatas!C56)</f>
         <v/>
       </c>
@@ -10686,35 +10686,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK59" s="43" t="str">
+      <c r="BK59" s="41" t="str">
         <f>IF(SUM(AP59,AP60)=0,"",SUM(AP59,AP60))</f>
         <v/>
       </c>
-      <c r="BL59" s="43" t="str">
+      <c r="BL59" s="41" t="str">
         <f>IF(ISERROR((AK59+AK60)*1000/BK59),"",(AK59+AK60)*1000/BK59)</f>
         <v/>
       </c>
-      <c r="BM59" s="43" t="str">
+      <c r="BM59" s="41" t="str">
         <f>IF(ISERROR((AL59+AL60)*1000/BK59),"",(AL59+AL60)*1000/BK59)</f>
         <v/>
       </c>
-      <c r="BN59" s="43" t="str">
+      <c r="BN59" s="41" t="str">
         <f>IF(SUM(BL59,BM59)=0,"",SUM(BL59,BM59))</f>
         <v/>
       </c>
-      <c r="BO59" s="43" t="str">
+      <c r="BO59" s="41" t="str">
         <f>IF(SUM(AQ59,AQ60)=0,"",SUM(AQ59,AQ60))</f>
         <v/>
       </c>
-      <c r="BP59" s="43" t="str">
+      <c r="BP59" s="41" t="str">
         <f>IF(ISERROR((AK59+AK60)*1000/BO59),"",(AK59+AK60)*1000/BO59)</f>
         <v/>
       </c>
-      <c r="BQ59" s="43" t="str">
+      <c r="BQ59" s="41" t="str">
         <f>IF(ISERROR((AL59+AL60)*1000/BO59),"",(AL59+AL60)*1000/BO59)</f>
         <v/>
       </c>
-      <c r="BR59" s="44" t="str">
+      <c r="BR59" s="37" t="str">
         <f>IF(SUM(BP59,BQ59)=0,"",SUM(BP59,BQ59))</f>
         <v/>
       </c>
@@ -10783,7 +10783,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR60" s="43"/>
+      <c r="AR60" s="41"/>
       <c r="AS60" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -10856,14 +10856,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK60" s="43"/>
-      <c r="BL60" s="43"/>
-      <c r="BM60" s="43"/>
-      <c r="BN60" s="43"/>
-      <c r="BO60" s="43"/>
-      <c r="BP60" s="43"/>
-      <c r="BQ60" s="43"/>
-      <c r="BR60" s="44"/>
+      <c r="BK60" s="41"/>
+      <c r="BL60" s="41"/>
+      <c r="BM60" s="41"/>
+      <c r="BN60" s="41"/>
+      <c r="BO60" s="41"/>
+      <c r="BP60" s="41"/>
+      <c r="BQ60" s="41"/>
+      <c r="BR60" s="37"/>
     </row>
     <row r="61" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="42">
@@ -10931,7 +10931,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR61" s="43" t="str">
+      <c r="AR61" s="41" t="str">
         <f>IF(_tagNameDatas!C58="","",_tagNameDatas!C58)</f>
         <v/>
       </c>
@@ -11007,35 +11007,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK61" s="43" t="str">
+      <c r="BK61" s="41" t="str">
         <f>IF(SUM(AP61,AP62)=0,"",SUM(AP61,AP62))</f>
         <v/>
       </c>
-      <c r="BL61" s="43" t="str">
+      <c r="BL61" s="41" t="str">
         <f>IF(ISERROR((AK61+AK62)*1000/BK61),"",(AK61+AK62)*1000/BK61)</f>
         <v/>
       </c>
-      <c r="BM61" s="43" t="str">
+      <c r="BM61" s="41" t="str">
         <f>IF(ISERROR((AL61+AL62)*1000/BK61),"",(AL61+AL62)*1000/BK61)</f>
         <v/>
       </c>
-      <c r="BN61" s="43" t="str">
+      <c r="BN61" s="41" t="str">
         <f>IF(SUM(BL61,BM61)=0,"",SUM(BL61,BM61))</f>
         <v/>
       </c>
-      <c r="BO61" s="43" t="str">
+      <c r="BO61" s="41" t="str">
         <f>IF(SUM(AQ61,AQ62)=0,"",SUM(AQ61,AQ62))</f>
         <v/>
       </c>
-      <c r="BP61" s="43" t="str">
+      <c r="BP61" s="41" t="str">
         <f>IF(ISERROR((AK61+AK62)*1000/BO61),"",(AK61+AK62)*1000/BO61)</f>
         <v/>
       </c>
-      <c r="BQ61" s="43" t="str">
+      <c r="BQ61" s="41" t="str">
         <f>IF(ISERROR((AL61+AL62)*1000/BO61),"",(AL61+AL62)*1000/BO61)</f>
         <v/>
       </c>
-      <c r="BR61" s="44" t="str">
+      <c r="BR61" s="37" t="str">
         <f>IF(SUM(BP61,BQ61)=0,"",SUM(BP61,BQ61))</f>
         <v/>
       </c>
@@ -11104,7 +11104,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR62" s="43"/>
+      <c r="AR62" s="41"/>
       <c r="AS62" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11177,14 +11177,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK62" s="43"/>
-      <c r="BL62" s="43"/>
-      <c r="BM62" s="43"/>
-      <c r="BN62" s="43"/>
-      <c r="BO62" s="43"/>
-      <c r="BP62" s="43"/>
-      <c r="BQ62" s="43"/>
-      <c r="BR62" s="44"/>
+      <c r="BK62" s="41"/>
+      <c r="BL62" s="41"/>
+      <c r="BM62" s="41"/>
+      <c r="BN62" s="41"/>
+      <c r="BO62" s="41"/>
+      <c r="BP62" s="41"/>
+      <c r="BQ62" s="41"/>
+      <c r="BR62" s="37"/>
     </row>
     <row r="63" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="42">
@@ -11252,7 +11252,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR63" s="43" t="str">
+      <c r="AR63" s="41" t="str">
         <f>IF(_tagNameDatas!C60="","",_tagNameDatas!C60)</f>
         <v/>
       </c>
@@ -11328,35 +11328,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK63" s="43" t="str">
+      <c r="BK63" s="41" t="str">
         <f>IF(SUM(AP63,AP64)=0,"",SUM(AP63,AP64))</f>
         <v/>
       </c>
-      <c r="BL63" s="43" t="str">
+      <c r="BL63" s="41" t="str">
         <f>IF(ISERROR((AK63+AK64)*1000/BK63),"",(AK63+AK64)*1000/BK63)</f>
         <v/>
       </c>
-      <c r="BM63" s="43" t="str">
+      <c r="BM63" s="41" t="str">
         <f>IF(ISERROR((AL63+AL64)*1000/BK63),"",(AL63+AL64)*1000/BK63)</f>
         <v/>
       </c>
-      <c r="BN63" s="43" t="str">
+      <c r="BN63" s="41" t="str">
         <f>IF(SUM(BL63,BM63)=0,"",SUM(BL63,BM63))</f>
         <v/>
       </c>
-      <c r="BO63" s="43" t="str">
+      <c r="BO63" s="41" t="str">
         <f>IF(SUM(AQ63,AQ64)=0,"",SUM(AQ63,AQ64))</f>
         <v/>
       </c>
-      <c r="BP63" s="43" t="str">
+      <c r="BP63" s="41" t="str">
         <f>IF(ISERROR((AK63+AK64)*1000/BO63),"",(AK63+AK64)*1000/BO63)</f>
         <v/>
       </c>
-      <c r="BQ63" s="43" t="str">
+      <c r="BQ63" s="41" t="str">
         <f>IF(ISERROR((AL63+AL64)*1000/BO63),"",(AL63+AL64)*1000/BO63)</f>
         <v/>
       </c>
-      <c r="BR63" s="44" t="str">
+      <c r="BR63" s="37" t="str">
         <f>IF(SUM(BP63,BQ63)=0,"",SUM(BP63,BQ63))</f>
         <v/>
       </c>
@@ -11425,7 +11425,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR64" s="43"/>
+      <c r="AR64" s="41"/>
       <c r="AS64" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11498,14 +11498,14 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK64" s="43"/>
-      <c r="BL64" s="43"/>
-      <c r="BM64" s="43"/>
-      <c r="BN64" s="43"/>
-      <c r="BO64" s="43"/>
-      <c r="BP64" s="43"/>
-      <c r="BQ64" s="43"/>
-      <c r="BR64" s="44"/>
+      <c r="BK64" s="41"/>
+      <c r="BL64" s="41"/>
+      <c r="BM64" s="41"/>
+      <c r="BN64" s="41"/>
+      <c r="BO64" s="41"/>
+      <c r="BP64" s="41"/>
+      <c r="BQ64" s="41"/>
+      <c r="BR64" s="37"/>
     </row>
     <row r="65" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="42">
@@ -11573,7 +11573,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR65" s="43" t="str">
+      <c r="AR65" s="41" t="str">
         <f>IF(_tagNameDatas!C62="","",_tagNameDatas!C62)</f>
         <v/>
       </c>
@@ -11649,35 +11649,35 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK65" s="43" t="str">
+      <c r="BK65" s="41" t="str">
         <f>IF(SUM(AP65,AP66)=0,"",SUM(AP65,AP66))</f>
         <v/>
       </c>
-      <c r="BL65" s="43" t="str">
+      <c r="BL65" s="41" t="str">
         <f>IF(ISERROR((AK65+AK66)*1000/BK65),"",(AK65+AK66)*1000/BK65)</f>
         <v/>
       </c>
-      <c r="BM65" s="43" t="str">
+      <c r="BM65" s="41" t="str">
         <f>IF(ISERROR((AL65+AL66)*1000/BK65),"",(AL65+AL66)*1000/BK65)</f>
         <v/>
       </c>
-      <c r="BN65" s="43" t="str">
+      <c r="BN65" s="41" t="str">
         <f>IF(SUM(BL65,BM65)=0,"",SUM(BL65,BM65))</f>
         <v/>
       </c>
-      <c r="BO65" s="43" t="str">
+      <c r="BO65" s="41" t="str">
         <f>IF(SUM(AQ65,AQ66)=0,"",SUM(AQ65,AQ66))</f>
         <v/>
       </c>
-      <c r="BP65" s="43" t="str">
+      <c r="BP65" s="41" t="str">
         <f>IF(ISERROR((AK65+AK66)*1000/BO65),"",(AK65+AK66)*1000/BO65)</f>
         <v/>
       </c>
-      <c r="BQ65" s="43" t="str">
+      <c r="BQ65" s="41" t="str">
         <f>IF(ISERROR((AL65+AL66)*1000/BO65),"",(AL65+AL66)*1000/BO65)</f>
         <v/>
       </c>
-      <c r="BR65" s="44" t="str">
+      <c r="BR65" s="37" t="str">
         <f>IF(SUM(BP65,BQ65)=0,"",SUM(BP65,BQ65))</f>
         <v/>
       </c>
@@ -11746,7 +11746,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AR66" s="43"/>
+      <c r="AR66" s="41"/>
       <c r="AS66" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11819,21 +11819,21 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK66" s="43"/>
-      <c r="BL66" s="43"/>
-      <c r="BM66" s="43"/>
-      <c r="BN66" s="43"/>
-      <c r="BO66" s="43"/>
-      <c r="BP66" s="43"/>
-      <c r="BQ66" s="43"/>
-      <c r="BR66" s="44"/>
+      <c r="BK66" s="41"/>
+      <c r="BL66" s="41"/>
+      <c r="BM66" s="41"/>
+      <c r="BN66" s="41"/>
+      <c r="BO66" s="41"/>
+      <c r="BP66" s="41"/>
+      <c r="BQ66" s="41"/>
+      <c r="BR66" s="37"/>
     </row>
     <row r="67" spans="1:70" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="30">
         <f>IF(ISERROR(SUM(D5:D66)),"",SUM(D5:D66))</f>
         <v>0</v>
@@ -12104,125 +12104,419 @@
       </c>
     </row>
     <row r="68" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="47"/>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="47"/>
-      <c r="Y68" s="47"/>
-      <c r="Z68" s="47"/>
-      <c r="AA68" s="47"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
     </row>
     <row r="69" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
-      <c r="X69" s="47"/>
-      <c r="Y69" s="47"/>
-      <c r="Z69" s="47"/>
-      <c r="AA69" s="47"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
+      <c r="AA69" s="40"/>
     </row>
     <row r="70" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47"/>
-      <c r="X70" s="47"/>
-      <c r="Y70" s="47"/>
-      <c r="Z70" s="47"/>
-      <c r="AA70" s="47"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="40"/>
     </row>
     <row r="71" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="47"/>
-      <c r="X71" s="47"/>
-      <c r="Y71" s="47"/>
-      <c r="Z71" s="47"/>
-      <c r="AA71" s="47"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
+      <c r="AA71" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="316">
+    <mergeCell ref="A1:BR1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BR7:BR8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="BK9:BK10"/>
+    <mergeCell ref="BL9:BL10"/>
+    <mergeCell ref="BM9:BM10"/>
+    <mergeCell ref="BN9:BN10"/>
+    <mergeCell ref="BO9:BO10"/>
+    <mergeCell ref="BP9:BP10"/>
+    <mergeCell ref="BQ9:BQ10"/>
+    <mergeCell ref="BR9:BR10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="BK7:BK8"/>
+    <mergeCell ref="BL7:BL8"/>
+    <mergeCell ref="BM7:BM8"/>
+    <mergeCell ref="BN7:BN8"/>
+    <mergeCell ref="BO7:BO8"/>
+    <mergeCell ref="BP7:BP8"/>
+    <mergeCell ref="BQ7:BQ8"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="BK13:BK14"/>
+    <mergeCell ref="BL13:BL14"/>
+    <mergeCell ref="BM13:BM14"/>
+    <mergeCell ref="BN13:BN14"/>
+    <mergeCell ref="BO13:BO14"/>
+    <mergeCell ref="BP13:BP14"/>
+    <mergeCell ref="BQ13:BQ14"/>
+    <mergeCell ref="BR13:BR14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BM11:BM12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="BR15:BR16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="AR17:AR18"/>
+    <mergeCell ref="BK17:BK18"/>
+    <mergeCell ref="BL17:BL18"/>
+    <mergeCell ref="BM17:BM18"/>
+    <mergeCell ref="BN17:BN18"/>
+    <mergeCell ref="BO17:BO18"/>
+    <mergeCell ref="BP17:BP18"/>
+    <mergeCell ref="BQ17:BQ18"/>
+    <mergeCell ref="BR17:BR18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="BK15:BK16"/>
+    <mergeCell ref="BL15:BL16"/>
+    <mergeCell ref="BM15:BM16"/>
+    <mergeCell ref="BN15:BN16"/>
+    <mergeCell ref="BO15:BO16"/>
+    <mergeCell ref="BP15:BP16"/>
+    <mergeCell ref="BQ15:BQ16"/>
+    <mergeCell ref="BR19:BR20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="BK21:BK22"/>
+    <mergeCell ref="BL21:BL22"/>
+    <mergeCell ref="BM21:BM22"/>
+    <mergeCell ref="BN21:BN22"/>
+    <mergeCell ref="BO21:BO22"/>
+    <mergeCell ref="BP21:BP22"/>
+    <mergeCell ref="BQ21:BQ22"/>
+    <mergeCell ref="BR21:BR22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="BK19:BK20"/>
+    <mergeCell ref="BL19:BL20"/>
+    <mergeCell ref="BM19:BM20"/>
+    <mergeCell ref="BN19:BN20"/>
+    <mergeCell ref="BO19:BO20"/>
+    <mergeCell ref="BP19:BP20"/>
+    <mergeCell ref="BQ19:BQ20"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="AR25:AR26"/>
+    <mergeCell ref="BK25:BK26"/>
+    <mergeCell ref="BL25:BL26"/>
+    <mergeCell ref="BM25:BM26"/>
+    <mergeCell ref="BN25:BN26"/>
+    <mergeCell ref="BO25:BO26"/>
+    <mergeCell ref="BP25:BP26"/>
+    <mergeCell ref="BQ25:BQ26"/>
+    <mergeCell ref="BR25:BR26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="AR23:AR24"/>
+    <mergeCell ref="BK23:BK24"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BM23:BM24"/>
+    <mergeCell ref="BN23:BN24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="BR27:BR28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="AR29:AR30"/>
+    <mergeCell ref="BK29:BK30"/>
+    <mergeCell ref="BL29:BL30"/>
+    <mergeCell ref="BM29:BM30"/>
+    <mergeCell ref="BN29:BN30"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BQ29:BQ30"/>
+    <mergeCell ref="BR29:BR30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="BK27:BK28"/>
+    <mergeCell ref="BL27:BL28"/>
+    <mergeCell ref="BM27:BM28"/>
+    <mergeCell ref="BN27:BN28"/>
+    <mergeCell ref="BO27:BO28"/>
+    <mergeCell ref="BP27:BP28"/>
+    <mergeCell ref="BQ27:BQ28"/>
+    <mergeCell ref="BR31:BR32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="AR33:AR34"/>
+    <mergeCell ref="BK33:BK34"/>
+    <mergeCell ref="BL33:BL34"/>
+    <mergeCell ref="BM33:BM34"/>
+    <mergeCell ref="BN33:BN34"/>
+    <mergeCell ref="BO33:BO34"/>
+    <mergeCell ref="BP33:BP34"/>
+    <mergeCell ref="BQ33:BQ34"/>
+    <mergeCell ref="BR33:BR34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="AR31:AR32"/>
+    <mergeCell ref="BK31:BK32"/>
+    <mergeCell ref="BL31:BL32"/>
+    <mergeCell ref="BM31:BM32"/>
+    <mergeCell ref="BN31:BN32"/>
+    <mergeCell ref="BO31:BO32"/>
+    <mergeCell ref="BP31:BP32"/>
+    <mergeCell ref="BQ31:BQ32"/>
+    <mergeCell ref="BR35:BR36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="AR37:AR38"/>
+    <mergeCell ref="BK37:BK38"/>
+    <mergeCell ref="BL37:BL38"/>
+    <mergeCell ref="BM37:BM38"/>
+    <mergeCell ref="BN37:BN38"/>
+    <mergeCell ref="BO37:BO38"/>
+    <mergeCell ref="BP37:BP38"/>
+    <mergeCell ref="BQ37:BQ38"/>
+    <mergeCell ref="BR37:BR38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="AR35:AR36"/>
+    <mergeCell ref="BK35:BK36"/>
+    <mergeCell ref="BL35:BL36"/>
+    <mergeCell ref="BM35:BM36"/>
+    <mergeCell ref="BN35:BN36"/>
+    <mergeCell ref="BO35:BO36"/>
+    <mergeCell ref="BP35:BP36"/>
+    <mergeCell ref="BQ35:BQ36"/>
+    <mergeCell ref="BR39:BR40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="AR41:AR42"/>
+    <mergeCell ref="BK41:BK42"/>
+    <mergeCell ref="BL41:BL42"/>
+    <mergeCell ref="BM41:BM42"/>
+    <mergeCell ref="BN41:BN42"/>
+    <mergeCell ref="BO41:BO42"/>
+    <mergeCell ref="BP41:BP42"/>
+    <mergeCell ref="BQ41:BQ42"/>
+    <mergeCell ref="BR41:BR42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="AR39:AR40"/>
+    <mergeCell ref="BK39:BK40"/>
+    <mergeCell ref="BL39:BL40"/>
+    <mergeCell ref="BM39:BM40"/>
+    <mergeCell ref="BN39:BN40"/>
+    <mergeCell ref="BO39:BO40"/>
+    <mergeCell ref="BP39:BP40"/>
+    <mergeCell ref="BQ39:BQ40"/>
+    <mergeCell ref="BR43:BR44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="AR45:AR46"/>
+    <mergeCell ref="BK45:BK46"/>
+    <mergeCell ref="BL45:BL46"/>
+    <mergeCell ref="BM45:BM46"/>
+    <mergeCell ref="BN45:BN46"/>
+    <mergeCell ref="BO45:BO46"/>
+    <mergeCell ref="BP45:BP46"/>
+    <mergeCell ref="BQ45:BQ46"/>
+    <mergeCell ref="BR45:BR46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="AR43:AR44"/>
+    <mergeCell ref="BK43:BK44"/>
+    <mergeCell ref="BL43:BL44"/>
+    <mergeCell ref="BM43:BM44"/>
+    <mergeCell ref="BN43:BN44"/>
+    <mergeCell ref="BO43:BO44"/>
+    <mergeCell ref="BP43:BP44"/>
+    <mergeCell ref="BQ43:BQ44"/>
+    <mergeCell ref="BR47:BR48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="AR49:AR50"/>
+    <mergeCell ref="BK49:BK50"/>
+    <mergeCell ref="BL49:BL50"/>
+    <mergeCell ref="BM49:BM50"/>
+    <mergeCell ref="BN49:BN50"/>
+    <mergeCell ref="BO49:BO50"/>
+    <mergeCell ref="BP49:BP50"/>
+    <mergeCell ref="BQ49:BQ50"/>
+    <mergeCell ref="BR49:BR50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="AR47:AR48"/>
+    <mergeCell ref="BK47:BK48"/>
+    <mergeCell ref="BL47:BL48"/>
+    <mergeCell ref="BM47:BM48"/>
+    <mergeCell ref="BN47:BN48"/>
+    <mergeCell ref="BO47:BO48"/>
+    <mergeCell ref="BP47:BP48"/>
+    <mergeCell ref="BQ47:BQ48"/>
+    <mergeCell ref="BR51:BR52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="AR53:AR54"/>
+    <mergeCell ref="BK53:BK54"/>
+    <mergeCell ref="BL53:BL54"/>
+    <mergeCell ref="BM53:BM54"/>
+    <mergeCell ref="BN53:BN54"/>
+    <mergeCell ref="BO53:BO54"/>
+    <mergeCell ref="BP53:BP54"/>
+    <mergeCell ref="BQ53:BQ54"/>
+    <mergeCell ref="BR53:BR54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="AR51:AR52"/>
+    <mergeCell ref="BK51:BK52"/>
+    <mergeCell ref="BL51:BL52"/>
+    <mergeCell ref="BM51:BM52"/>
+    <mergeCell ref="BN51:BN52"/>
+    <mergeCell ref="BO51:BO52"/>
+    <mergeCell ref="BP51:BP52"/>
+    <mergeCell ref="BQ51:BQ52"/>
+    <mergeCell ref="BR55:BR56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="AR57:AR58"/>
+    <mergeCell ref="BK57:BK58"/>
+    <mergeCell ref="BL57:BL58"/>
+    <mergeCell ref="BM57:BM58"/>
+    <mergeCell ref="BN57:BN58"/>
+    <mergeCell ref="BO57:BO58"/>
+    <mergeCell ref="BP57:BP58"/>
+    <mergeCell ref="BQ57:BQ58"/>
+    <mergeCell ref="BR57:BR58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AR55:AR56"/>
+    <mergeCell ref="BK55:BK56"/>
+    <mergeCell ref="BL55:BL56"/>
+    <mergeCell ref="BM55:BM56"/>
+    <mergeCell ref="BN55:BN56"/>
+    <mergeCell ref="BO55:BO56"/>
+    <mergeCell ref="BP55:BP56"/>
+    <mergeCell ref="BQ55:BQ56"/>
+    <mergeCell ref="BR59:BR60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="AR61:AR62"/>
+    <mergeCell ref="BK61:BK62"/>
+    <mergeCell ref="BL61:BL62"/>
+    <mergeCell ref="BM61:BM62"/>
+    <mergeCell ref="BN61:BN62"/>
+    <mergeCell ref="BO61:BO62"/>
+    <mergeCell ref="BP61:BP62"/>
+    <mergeCell ref="BQ61:BQ62"/>
+    <mergeCell ref="BR61:BR62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="AR59:AR60"/>
+    <mergeCell ref="BK59:BK60"/>
+    <mergeCell ref="BL59:BL60"/>
+    <mergeCell ref="BM59:BM60"/>
+    <mergeCell ref="BN59:BN60"/>
+    <mergeCell ref="BO59:BO60"/>
+    <mergeCell ref="BP59:BP60"/>
+    <mergeCell ref="BQ59:BQ60"/>
     <mergeCell ref="BR65:BR66"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A68:AA71"/>
@@ -12245,300 +12539,6 @@
     <mergeCell ref="BO65:BO66"/>
     <mergeCell ref="BP65:BP66"/>
     <mergeCell ref="BQ65:BQ66"/>
-    <mergeCell ref="BR59:BR60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="AR61:AR62"/>
-    <mergeCell ref="BK61:BK62"/>
-    <mergeCell ref="BL61:BL62"/>
-    <mergeCell ref="BM61:BM62"/>
-    <mergeCell ref="BN61:BN62"/>
-    <mergeCell ref="BO61:BO62"/>
-    <mergeCell ref="BP61:BP62"/>
-    <mergeCell ref="BQ61:BQ62"/>
-    <mergeCell ref="BR61:BR62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="AR59:AR60"/>
-    <mergeCell ref="BK59:BK60"/>
-    <mergeCell ref="BL59:BL60"/>
-    <mergeCell ref="BM59:BM60"/>
-    <mergeCell ref="BN59:BN60"/>
-    <mergeCell ref="BO59:BO60"/>
-    <mergeCell ref="BP59:BP60"/>
-    <mergeCell ref="BQ59:BQ60"/>
-    <mergeCell ref="BR55:BR56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="AR57:AR58"/>
-    <mergeCell ref="BK57:BK58"/>
-    <mergeCell ref="BL57:BL58"/>
-    <mergeCell ref="BM57:BM58"/>
-    <mergeCell ref="BN57:BN58"/>
-    <mergeCell ref="BO57:BO58"/>
-    <mergeCell ref="BP57:BP58"/>
-    <mergeCell ref="BQ57:BQ58"/>
-    <mergeCell ref="BR57:BR58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="AR55:AR56"/>
-    <mergeCell ref="BK55:BK56"/>
-    <mergeCell ref="BL55:BL56"/>
-    <mergeCell ref="BM55:BM56"/>
-    <mergeCell ref="BN55:BN56"/>
-    <mergeCell ref="BO55:BO56"/>
-    <mergeCell ref="BP55:BP56"/>
-    <mergeCell ref="BQ55:BQ56"/>
-    <mergeCell ref="BR51:BR52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="AR53:AR54"/>
-    <mergeCell ref="BK53:BK54"/>
-    <mergeCell ref="BL53:BL54"/>
-    <mergeCell ref="BM53:BM54"/>
-    <mergeCell ref="BN53:BN54"/>
-    <mergeCell ref="BO53:BO54"/>
-    <mergeCell ref="BP53:BP54"/>
-    <mergeCell ref="BQ53:BQ54"/>
-    <mergeCell ref="BR53:BR54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="AR51:AR52"/>
-    <mergeCell ref="BK51:BK52"/>
-    <mergeCell ref="BL51:BL52"/>
-    <mergeCell ref="BM51:BM52"/>
-    <mergeCell ref="BN51:BN52"/>
-    <mergeCell ref="BO51:BO52"/>
-    <mergeCell ref="BP51:BP52"/>
-    <mergeCell ref="BQ51:BQ52"/>
-    <mergeCell ref="BR47:BR48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="AR49:AR50"/>
-    <mergeCell ref="BK49:BK50"/>
-    <mergeCell ref="BL49:BL50"/>
-    <mergeCell ref="BM49:BM50"/>
-    <mergeCell ref="BN49:BN50"/>
-    <mergeCell ref="BO49:BO50"/>
-    <mergeCell ref="BP49:BP50"/>
-    <mergeCell ref="BQ49:BQ50"/>
-    <mergeCell ref="BR49:BR50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="AR47:AR48"/>
-    <mergeCell ref="BK47:BK48"/>
-    <mergeCell ref="BL47:BL48"/>
-    <mergeCell ref="BM47:BM48"/>
-    <mergeCell ref="BN47:BN48"/>
-    <mergeCell ref="BO47:BO48"/>
-    <mergeCell ref="BP47:BP48"/>
-    <mergeCell ref="BQ47:BQ48"/>
-    <mergeCell ref="BR43:BR44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="AR45:AR46"/>
-    <mergeCell ref="BK45:BK46"/>
-    <mergeCell ref="BL45:BL46"/>
-    <mergeCell ref="BM45:BM46"/>
-    <mergeCell ref="BN45:BN46"/>
-    <mergeCell ref="BO45:BO46"/>
-    <mergeCell ref="BP45:BP46"/>
-    <mergeCell ref="BQ45:BQ46"/>
-    <mergeCell ref="BR45:BR46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="AR43:AR44"/>
-    <mergeCell ref="BK43:BK44"/>
-    <mergeCell ref="BL43:BL44"/>
-    <mergeCell ref="BM43:BM44"/>
-    <mergeCell ref="BN43:BN44"/>
-    <mergeCell ref="BO43:BO44"/>
-    <mergeCell ref="BP43:BP44"/>
-    <mergeCell ref="BQ43:BQ44"/>
-    <mergeCell ref="BR39:BR40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="AR41:AR42"/>
-    <mergeCell ref="BK41:BK42"/>
-    <mergeCell ref="BL41:BL42"/>
-    <mergeCell ref="BM41:BM42"/>
-    <mergeCell ref="BN41:BN42"/>
-    <mergeCell ref="BO41:BO42"/>
-    <mergeCell ref="BP41:BP42"/>
-    <mergeCell ref="BQ41:BQ42"/>
-    <mergeCell ref="BR41:BR42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="AR39:AR40"/>
-    <mergeCell ref="BK39:BK40"/>
-    <mergeCell ref="BL39:BL40"/>
-    <mergeCell ref="BM39:BM40"/>
-    <mergeCell ref="BN39:BN40"/>
-    <mergeCell ref="BO39:BO40"/>
-    <mergeCell ref="BP39:BP40"/>
-    <mergeCell ref="BQ39:BQ40"/>
-    <mergeCell ref="BR35:BR36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="AR37:AR38"/>
-    <mergeCell ref="BK37:BK38"/>
-    <mergeCell ref="BL37:BL38"/>
-    <mergeCell ref="BM37:BM38"/>
-    <mergeCell ref="BN37:BN38"/>
-    <mergeCell ref="BO37:BO38"/>
-    <mergeCell ref="BP37:BP38"/>
-    <mergeCell ref="BQ37:BQ38"/>
-    <mergeCell ref="BR37:BR38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="AR35:AR36"/>
-    <mergeCell ref="BK35:BK36"/>
-    <mergeCell ref="BL35:BL36"/>
-    <mergeCell ref="BM35:BM36"/>
-    <mergeCell ref="BN35:BN36"/>
-    <mergeCell ref="BO35:BO36"/>
-    <mergeCell ref="BP35:BP36"/>
-    <mergeCell ref="BQ35:BQ36"/>
-    <mergeCell ref="BR31:BR32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="AR33:AR34"/>
-    <mergeCell ref="BK33:BK34"/>
-    <mergeCell ref="BL33:BL34"/>
-    <mergeCell ref="BM33:BM34"/>
-    <mergeCell ref="BN33:BN34"/>
-    <mergeCell ref="BO33:BO34"/>
-    <mergeCell ref="BP33:BP34"/>
-    <mergeCell ref="BQ33:BQ34"/>
-    <mergeCell ref="BR33:BR34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="AR31:AR32"/>
-    <mergeCell ref="BK31:BK32"/>
-    <mergeCell ref="BL31:BL32"/>
-    <mergeCell ref="BM31:BM32"/>
-    <mergeCell ref="BN31:BN32"/>
-    <mergeCell ref="BO31:BO32"/>
-    <mergeCell ref="BP31:BP32"/>
-    <mergeCell ref="BQ31:BQ32"/>
-    <mergeCell ref="BR27:BR28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="AR29:AR30"/>
-    <mergeCell ref="BK29:BK30"/>
-    <mergeCell ref="BL29:BL30"/>
-    <mergeCell ref="BM29:BM30"/>
-    <mergeCell ref="BN29:BN30"/>
-    <mergeCell ref="BO29:BO30"/>
-    <mergeCell ref="BP29:BP30"/>
-    <mergeCell ref="BQ29:BQ30"/>
-    <mergeCell ref="BR29:BR30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="BK27:BK28"/>
-    <mergeCell ref="BL27:BL28"/>
-    <mergeCell ref="BM27:BM28"/>
-    <mergeCell ref="BN27:BN28"/>
-    <mergeCell ref="BO27:BO28"/>
-    <mergeCell ref="BP27:BP28"/>
-    <mergeCell ref="BQ27:BQ28"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="AR25:AR26"/>
-    <mergeCell ref="BK25:BK26"/>
-    <mergeCell ref="BL25:BL26"/>
-    <mergeCell ref="BM25:BM26"/>
-    <mergeCell ref="BN25:BN26"/>
-    <mergeCell ref="BO25:BO26"/>
-    <mergeCell ref="BP25:BP26"/>
-    <mergeCell ref="BQ25:BQ26"/>
-    <mergeCell ref="BR25:BR26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="AR23:AR24"/>
-    <mergeCell ref="BK23:BK24"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BM23:BM24"/>
-    <mergeCell ref="BN23:BN24"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BP23:BP24"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="BR19:BR20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="BK21:BK22"/>
-    <mergeCell ref="BL21:BL22"/>
-    <mergeCell ref="BM21:BM22"/>
-    <mergeCell ref="BN21:BN22"/>
-    <mergeCell ref="BO21:BO22"/>
-    <mergeCell ref="BP21:BP22"/>
-    <mergeCell ref="BQ21:BQ22"/>
-    <mergeCell ref="BR21:BR22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="BK19:BK20"/>
-    <mergeCell ref="BL19:BL20"/>
-    <mergeCell ref="BM19:BM20"/>
-    <mergeCell ref="BN19:BN20"/>
-    <mergeCell ref="BO19:BO20"/>
-    <mergeCell ref="BP19:BP20"/>
-    <mergeCell ref="BQ19:BQ20"/>
-    <mergeCell ref="BR15:BR16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="AR17:AR18"/>
-    <mergeCell ref="BK17:BK18"/>
-    <mergeCell ref="BL17:BL18"/>
-    <mergeCell ref="BM17:BM18"/>
-    <mergeCell ref="BN17:BN18"/>
-    <mergeCell ref="BO17:BO18"/>
-    <mergeCell ref="BP17:BP18"/>
-    <mergeCell ref="BQ17:BQ18"/>
-    <mergeCell ref="BR17:BR18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="BK15:BK16"/>
-    <mergeCell ref="BL15:BL16"/>
-    <mergeCell ref="BM15:BM16"/>
-    <mergeCell ref="BN15:BN16"/>
-    <mergeCell ref="BO15:BO16"/>
-    <mergeCell ref="BP15:BP16"/>
-    <mergeCell ref="BQ15:BQ16"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="BK13:BK14"/>
-    <mergeCell ref="BL13:BL14"/>
-    <mergeCell ref="BM13:BM14"/>
-    <mergeCell ref="BN13:BN14"/>
-    <mergeCell ref="BO13:BO14"/>
-    <mergeCell ref="BP13:BP14"/>
-    <mergeCell ref="BQ13:BQ14"/>
-    <mergeCell ref="BR13:BR14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BM11:BM12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="BR7:BR8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="BK9:BK10"/>
-    <mergeCell ref="BL9:BL10"/>
-    <mergeCell ref="BM9:BM10"/>
-    <mergeCell ref="BN9:BN10"/>
-    <mergeCell ref="BO9:BO10"/>
-    <mergeCell ref="BP9:BP10"/>
-    <mergeCell ref="BQ9:BQ10"/>
-    <mergeCell ref="BR9:BR10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="AR7:AR8"/>
-    <mergeCell ref="BK7:BK8"/>
-    <mergeCell ref="BL7:BL8"/>
-    <mergeCell ref="BM7:BM8"/>
-    <mergeCell ref="BN7:BN8"/>
-    <mergeCell ref="BO7:BO8"/>
-    <mergeCell ref="BP7:BP8"/>
-    <mergeCell ref="BQ7:BQ8"/>
-    <mergeCell ref="A1:BR1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR5:BR6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
